--- a/Data/metadata/NIWA_metadata.xlsx
+++ b/Data/metadata/NIWA_metadata.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mab/Documents/GitHub/bryozoa/magnifica/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mab/Documents/GitHub/bryozoa/magnifica/Data/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E90809B4-AFE5-9449-9D5B-4538AAE6BF09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7225A2D-52D3-3446-829D-7597FCCB00F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2300" yWindow="2360" windowWidth="26840" windowHeight="15880" xr2:uid="{45F7FB78-3F76-BD4A-B1B5-CF2CD846B872}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="152">
   <si>
     <t>File_name</t>
   </si>
@@ -480,13 +481,25 @@
   </si>
   <si>
     <t>Foveaux Strait</t>
+  </si>
+  <si>
+    <t>ile-name sequence is: Taxon name, NIWA registration number, station number, and image number. A, B, etc, refer to different colonies (or fragments of colonies) of the same species from the same station.</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -500,6 +513,11 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos"/>
     </font>
   </fonts>
   <fills count="2">
@@ -522,12 +540,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -862,10 +881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{221EAFEC-359D-EB41-9A03-C949AF985F96}">
-  <dimension ref="A1:Q77"/>
+  <dimension ref="A1:R77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -873,7 +892,7 @@
     <col min="4" max="4" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -893,40 +912,43 @@
         <v>2</v>
       </c>
       <c r="G1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>115</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>116</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>117</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>118</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>119</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>120</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>121</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>122</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -946,34 +968,37 @@
         <v>8</v>
       </c>
       <c r="G2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" t="s">
-        <v>11</v>
-      </c>
       <c r="J2" t="s">
         <v>11</v>
       </c>
       <c r="K2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" t="s">
         <v>123</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>-34.356670000000001</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>172.77</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>125</v>
       </c>
-      <c r="O2" t="s">
-        <v>124</v>
-      </c>
-      <c r="P2">
+      <c r="P2" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q2">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -990,37 +1015,40 @@
         <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
         <v>23</v>
       </c>
-      <c r="I3" t="s">
-        <v>11</v>
-      </c>
       <c r="J3" t="s">
         <v>11</v>
       </c>
       <c r="K3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" t="s">
         <v>123</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>-34.356670000000001</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>172.77</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>125</v>
       </c>
-      <c r="O3" t="s">
-        <v>124</v>
-      </c>
-      <c r="P3">
+      <c r="P3" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q3">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1040,37 +1068,40 @@
         <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" t="s">
-        <v>11</v>
+        <v>150</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
       </c>
       <c r="K4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" t="s">
         <v>126</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>-37.601999999999997</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>178.8955</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>127</v>
       </c>
-      <c r="O4" t="s">
-        <v>124</v>
-      </c>
-      <c r="P4">
+      <c r="P4" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q4">
         <v>60</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1090,37 +1121,40 @@
         <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" t="s">
-        <v>11</v>
+        <v>150</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
       </c>
       <c r="K5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" t="s">
         <v>126</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>-37.601999999999997</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>178.8955</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>127</v>
       </c>
-      <c r="O5" t="s">
-        <v>124</v>
-      </c>
-      <c r="P5">
+      <c r="P5" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q5">
         <v>60</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1140,37 +1174,40 @@
         <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" t="s">
-        <v>11</v>
+        <v>150</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
       </c>
       <c r="K6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" t="s">
         <v>126</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>-37.601999999999997</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>178.8955</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>127</v>
       </c>
-      <c r="O6" t="s">
-        <v>124</v>
-      </c>
-      <c r="P6">
+      <c r="P6" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q6">
         <v>60</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1190,37 +1227,40 @@
         <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" t="s">
-        <v>11</v>
+        <v>150</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
       </c>
       <c r="K7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" t="s">
         <v>126</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>-37.601999999999997</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>178.8955</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>127</v>
       </c>
-      <c r="O7" t="s">
-        <v>124</v>
-      </c>
-      <c r="P7">
+      <c r="P7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q7">
         <v>60</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1240,40 +1280,43 @@
         <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="H8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
         <v>22</v>
       </c>
-      <c r="I8" t="s">
-        <v>11</v>
-      </c>
       <c r="J8" t="s">
         <v>11</v>
       </c>
       <c r="K8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" t="s">
         <v>126</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>-37.601999999999997</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>178.8955</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>127</v>
       </c>
-      <c r="O8" t="s">
-        <v>124</v>
-      </c>
-      <c r="P8">
+      <c r="P8" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q8">
         <v>60</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1293,40 +1336,43 @@
         <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="H9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
         <v>22</v>
       </c>
-      <c r="I9" t="s">
-        <v>11</v>
-      </c>
       <c r="J9" t="s">
         <v>11</v>
       </c>
       <c r="K9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" t="s">
         <v>126</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>-37.601999999999997</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>178.8955</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>127</v>
       </c>
-      <c r="O9" t="s">
-        <v>124</v>
-      </c>
-      <c r="P9">
+      <c r="P9" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q9">
         <v>60</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1346,40 +1392,43 @@
         <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
         <v>22</v>
       </c>
-      <c r="I10" t="s">
-        <v>11</v>
-      </c>
       <c r="J10" t="s">
         <v>11</v>
       </c>
       <c r="K10" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" t="s">
         <v>126</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>-37.601999999999997</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>178.8955</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>127</v>
       </c>
-      <c r="O10" t="s">
-        <v>124</v>
-      </c>
-      <c r="P10">
+      <c r="P10" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q10">
         <v>60</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1399,37 +1448,40 @@
         <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" t="s">
-        <v>11</v>
+        <v>151</v>
+      </c>
+      <c r="H11" t="s">
+        <v>14</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
       </c>
       <c r="K11" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" t="s">
         <v>126</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>-37.601999999999997</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>178.8955</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>127</v>
       </c>
-      <c r="O11" t="s">
-        <v>124</v>
-      </c>
-      <c r="P11">
+      <c r="P11" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q11">
         <v>60</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1449,40 +1501,43 @@
         <v>8</v>
       </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="H12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
         <v>22</v>
       </c>
-      <c r="I12" t="s">
-        <v>11</v>
-      </c>
       <c r="J12" t="s">
         <v>11</v>
       </c>
       <c r="K12" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" t="s">
         <v>130</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>-35.262650000000001</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>174.18180000000001</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>134</v>
       </c>
-      <c r="O12" t="s">
-        <v>124</v>
-      </c>
-      <c r="P12">
+      <c r="P12" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q12">
         <v>5.4</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1502,40 +1557,43 @@
         <v>8</v>
       </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="H13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
         <v>22</v>
       </c>
-      <c r="I13" t="s">
-        <v>11</v>
-      </c>
       <c r="J13" t="s">
         <v>11</v>
       </c>
       <c r="K13" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" t="s">
         <v>130</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>-35.262650000000001</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>174.18180000000001</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>134</v>
       </c>
-      <c r="O13" t="s">
-        <v>124</v>
-      </c>
-      <c r="P13">
+      <c r="P13" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q13">
         <v>5.4</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1555,40 +1613,43 @@
         <v>8</v>
       </c>
       <c r="G14" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="H14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
         <v>22</v>
       </c>
-      <c r="I14" t="s">
-        <v>11</v>
-      </c>
       <c r="J14" t="s">
         <v>11</v>
       </c>
       <c r="K14" t="s">
+        <v>11</v>
+      </c>
+      <c r="L14" t="s">
         <v>130</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>-35.262650000000001</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>174.18180000000001</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>134</v>
       </c>
-      <c r="O14" t="s">
-        <v>124</v>
-      </c>
-      <c r="P14">
+      <c r="P14" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q14">
         <v>5.4</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1608,38 +1669,41 @@
         <v>8</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="1"/>
-      <c r="I15" t="s">
-        <v>11</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="1"/>
       <c r="J15" t="s">
         <v>11</v>
       </c>
       <c r="K15" t="s">
+        <v>11</v>
+      </c>
+      <c r="L15" t="s">
         <v>130</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>-35.262650000000001</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>174.18180000000001</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>134</v>
       </c>
-      <c r="O15" t="s">
-        <v>124</v>
-      </c>
-      <c r="P15">
+      <c r="P15" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q15">
         <v>5.4</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -1659,38 +1723,41 @@
         <v>8</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="1"/>
-      <c r="I16" t="s">
-        <v>11</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="1"/>
       <c r="J16" t="s">
         <v>11</v>
       </c>
       <c r="K16" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" t="s">
         <v>130</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>-35.262650000000001</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>174.18180000000001</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>134</v>
       </c>
-      <c r="O16" t="s">
-        <v>124</v>
-      </c>
-      <c r="P16">
+      <c r="P16" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q16">
         <v>5.4</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -1710,37 +1777,40 @@
         <v>8</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" t="s">
-        <v>11</v>
+        <v>150</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
       </c>
       <c r="K17" t="s">
+        <v>11</v>
+      </c>
+      <c r="L17" t="s">
         <v>130</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>-35.262650000000001</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>174.18180000000001</v>
       </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
         <v>134</v>
       </c>
-      <c r="O17" t="s">
-        <v>124</v>
-      </c>
-      <c r="P17">
+      <c r="P17" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q17">
         <v>5.4</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="R17" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -1759,41 +1829,44 @@
       <c r="F18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G18" t="s">
-        <v>14</v>
+      <c r="G18" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="H18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
         <v>22</v>
       </c>
-      <c r="I18" t="s">
-        <v>11</v>
-      </c>
       <c r="J18" t="s">
         <v>11</v>
       </c>
       <c r="K18" t="s">
+        <v>11</v>
+      </c>
+      <c r="L18" t="s">
         <v>130</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>-35.262650000000001</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>174.18180000000001</v>
       </c>
-      <c r="N18" t="s">
+      <c r="O18" t="s">
         <v>134</v>
       </c>
-      <c r="O18" t="s">
-        <v>124</v>
-      </c>
-      <c r="P18">
+      <c r="P18" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q18">
         <v>5.4</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="R18" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -1812,41 +1885,44 @@
       <c r="F19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G19" t="s">
-        <v>14</v>
+      <c r="G19" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="H19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
         <v>22</v>
       </c>
-      <c r="I19" t="s">
-        <v>11</v>
-      </c>
       <c r="J19" t="s">
         <v>11</v>
       </c>
       <c r="K19" t="s">
+        <v>11</v>
+      </c>
+      <c r="L19" t="s">
         <v>130</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>-35.262650000000001</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>174.18180000000001</v>
       </c>
-      <c r="N19" t="s">
+      <c r="O19" t="s">
         <v>134</v>
       </c>
-      <c r="O19" t="s">
-        <v>124</v>
-      </c>
-      <c r="P19">
+      <c r="P19" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q19">
         <v>5.4</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="R19" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -1865,38 +1941,41 @@
       <c r="F20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I20" t="s">
-        <v>11</v>
+      <c r="G20" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H20" t="s">
+        <v>14</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
       </c>
       <c r="K20" t="s">
+        <v>11</v>
+      </c>
+      <c r="L20" t="s">
         <v>130</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>-35.262650000000001</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>174.18180000000001</v>
       </c>
-      <c r="N20" t="s">
+      <c r="O20" t="s">
         <v>134</v>
       </c>
-      <c r="O20" t="s">
-        <v>124</v>
-      </c>
-      <c r="P20">
+      <c r="P20" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q20">
         <v>5.4</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="R20" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -1915,41 +1994,44 @@
       <c r="F21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G21" t="s">
-        <v>14</v>
+      <c r="G21" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="H21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
         <v>22</v>
       </c>
-      <c r="I21" t="s">
-        <v>11</v>
-      </c>
       <c r="J21" t="s">
         <v>11</v>
       </c>
       <c r="K21" t="s">
+        <v>11</v>
+      </c>
+      <c r="L21" t="s">
         <v>130</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>-35.262650000000001</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>174.18180000000001</v>
       </c>
-      <c r="N21" t="s">
+      <c r="O21" t="s">
         <v>134</v>
       </c>
-      <c r="O21" t="s">
-        <v>124</v>
-      </c>
-      <c r="P21">
+      <c r="P21" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q21">
         <v>5.4</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="R21" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -1968,41 +2050,44 @@
       <c r="F22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G22" t="s">
-        <v>14</v>
+      <c r="G22" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="H22" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
         <v>22</v>
       </c>
-      <c r="I22" t="s">
-        <v>11</v>
-      </c>
       <c r="J22" t="s">
         <v>11</v>
       </c>
       <c r="K22" t="s">
+        <v>11</v>
+      </c>
+      <c r="L22" t="s">
         <v>130</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>-35.262650000000001</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>174.18180000000001</v>
       </c>
-      <c r="N22" t="s">
+      <c r="O22" t="s">
         <v>134</v>
       </c>
-      <c r="O22" t="s">
-        <v>124</v>
-      </c>
-      <c r="P22">
+      <c r="P22" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q22">
         <v>5.4</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="R22" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -2021,41 +2106,44 @@
       <c r="F23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G23" t="s">
-        <v>14</v>
+      <c r="G23" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="H23" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
         <v>22</v>
       </c>
-      <c r="I23" t="s">
-        <v>11</v>
-      </c>
       <c r="J23" t="s">
         <v>11</v>
       </c>
       <c r="K23" t="s">
+        <v>11</v>
+      </c>
+      <c r="L23" t="s">
         <v>130</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>-35.262650000000001</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>174.18180000000001</v>
       </c>
-      <c r="N23" t="s">
+      <c r="O23" t="s">
         <v>134</v>
       </c>
-      <c r="O23" t="s">
-        <v>124</v>
-      </c>
-      <c r="P23">
+      <c r="P23" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q23">
         <v>5.4</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="R23" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -2074,41 +2162,44 @@
       <c r="F24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G24" t="s">
-        <v>14</v>
+      <c r="G24" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="H24" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
         <v>22</v>
       </c>
-      <c r="I24" t="s">
-        <v>11</v>
-      </c>
       <c r="J24" t="s">
         <v>11</v>
       </c>
       <c r="K24" t="s">
+        <v>11</v>
+      </c>
+      <c r="L24" t="s">
         <v>130</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>-35.262650000000001</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>174.18180000000001</v>
       </c>
-      <c r="N24" t="s">
+      <c r="O24" t="s">
         <v>134</v>
       </c>
-      <c r="O24" t="s">
-        <v>124</v>
-      </c>
-      <c r="P24">
+      <c r="P24" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q24">
         <v>5.4</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="R24" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -2127,38 +2218,41 @@
       <c r="F25" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G25" t="s">
-        <v>14</v>
-      </c>
-      <c r="I25" t="s">
-        <v>11</v>
+      <c r="G25" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H25" t="s">
+        <v>14</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
       </c>
       <c r="K25" t="s">
+        <v>11</v>
+      </c>
+      <c r="L25" t="s">
         <v>130</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>-35.262650000000001</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>174.18180000000001</v>
       </c>
-      <c r="N25" t="s">
+      <c r="O25" t="s">
         <v>134</v>
       </c>
-      <c r="O25" t="s">
-        <v>124</v>
-      </c>
-      <c r="P25">
+      <c r="P25" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q25">
         <v>5.4</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="R25" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -2177,41 +2271,44 @@
       <c r="F26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G26" t="s">
-        <v>14</v>
+      <c r="G26" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="H26" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
         <v>22</v>
       </c>
-      <c r="I26" t="s">
-        <v>11</v>
-      </c>
       <c r="J26" t="s">
         <v>11</v>
       </c>
       <c r="K26" t="s">
+        <v>11</v>
+      </c>
+      <c r="L26" t="s">
         <v>130</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>-35.262650000000001</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>174.18180000000001</v>
       </c>
-      <c r="N26" t="s">
+      <c r="O26" t="s">
         <v>134</v>
       </c>
-      <c r="O26" t="s">
-        <v>124</v>
-      </c>
-      <c r="P26">
+      <c r="P26" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q26">
         <v>5.4</v>
       </c>
-      <c r="Q26" t="s">
+      <c r="R26" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -2230,38 +2327,41 @@
       <c r="F27" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G27" t="s">
-        <v>14</v>
-      </c>
-      <c r="I27" t="s">
-        <v>11</v>
+      <c r="G27" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H27" t="s">
+        <v>14</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
       </c>
       <c r="K27" t="s">
+        <v>11</v>
+      </c>
+      <c r="L27" t="s">
         <v>130</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>-35.262650000000001</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>174.18180000000001</v>
       </c>
-      <c r="N27" t="s">
+      <c r="O27" t="s">
         <v>134</v>
       </c>
-      <c r="O27" t="s">
-        <v>124</v>
-      </c>
-      <c r="P27">
+      <c r="P27" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q27">
         <v>5.4</v>
       </c>
-      <c r="Q27" t="s">
+      <c r="R27" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -2280,38 +2380,41 @@
       <c r="F28" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G28" t="s">
-        <v>14</v>
-      </c>
-      <c r="I28" t="s">
-        <v>11</v>
+      <c r="G28" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H28" t="s">
+        <v>14</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
       </c>
       <c r="K28" t="s">
+        <v>11</v>
+      </c>
+      <c r="L28" t="s">
         <v>130</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>-35.262650000000001</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>174.18180000000001</v>
       </c>
-      <c r="N28" t="s">
+      <c r="O28" t="s">
         <v>134</v>
       </c>
-      <c r="O28" t="s">
-        <v>124</v>
-      </c>
-      <c r="P28">
+      <c r="P28" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q28">
         <v>5.4</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="R28" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -2330,38 +2433,41 @@
       <c r="F29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G29" t="s">
-        <v>14</v>
-      </c>
-      <c r="I29" t="s">
-        <v>11</v>
+      <c r="G29" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H29" t="s">
+        <v>14</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
       </c>
       <c r="K29" t="s">
+        <v>11</v>
+      </c>
+      <c r="L29" t="s">
         <v>130</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>-35.262650000000001</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>174.18180000000001</v>
       </c>
-      <c r="N29" t="s">
+      <c r="O29" t="s">
         <v>134</v>
       </c>
-      <c r="O29" t="s">
-        <v>124</v>
-      </c>
-      <c r="P29">
+      <c r="P29" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q29">
         <v>5.4</v>
       </c>
-      <c r="Q29" t="s">
+      <c r="R29" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -2380,38 +2486,41 @@
       <c r="F30" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G30" t="s">
-        <v>14</v>
-      </c>
-      <c r="I30" t="s">
-        <v>11</v>
+      <c r="G30" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H30" t="s">
+        <v>14</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
       </c>
       <c r="K30" t="s">
+        <v>11</v>
+      </c>
+      <c r="L30" t="s">
         <v>130</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>-35.262650000000001</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>174.18180000000001</v>
       </c>
-      <c r="N30" t="s">
+      <c r="O30" t="s">
         <v>134</v>
       </c>
-      <c r="O30" t="s">
-        <v>124</v>
-      </c>
-      <c r="P30">
+      <c r="P30" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q30">
         <v>5.4</v>
       </c>
-      <c r="Q30" t="s">
+      <c r="R30" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -2430,38 +2539,41 @@
       <c r="F31" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G31" t="s">
-        <v>14</v>
-      </c>
-      <c r="I31" t="s">
-        <v>11</v>
+      <c r="G31" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H31" t="s">
+        <v>14</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
       </c>
       <c r="K31" t="s">
+        <v>11</v>
+      </c>
+      <c r="L31" t="s">
         <v>130</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>-35.262650000000001</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>174.18180000000001</v>
       </c>
-      <c r="N31" t="s">
+      <c r="O31" t="s">
         <v>134</v>
       </c>
-      <c r="O31" t="s">
-        <v>124</v>
-      </c>
-      <c r="P31">
+      <c r="P31" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q31">
         <v>5.4</v>
       </c>
-      <c r="Q31" t="s">
+      <c r="R31" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -2480,38 +2592,41 @@
       <c r="F32" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G32" t="s">
-        <v>14</v>
-      </c>
-      <c r="I32" t="s">
-        <v>11</v>
+      <c r="G32" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H32" t="s">
+        <v>14</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
       </c>
       <c r="K32" t="s">
+        <v>11</v>
+      </c>
+      <c r="L32" t="s">
         <v>136</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>-35.186833300000004</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>174.11733330000001</v>
       </c>
-      <c r="N32" t="s">
+      <c r="O32" t="s">
         <v>138</v>
       </c>
-      <c r="O32" t="s">
-        <v>124</v>
-      </c>
-      <c r="P32">
+      <c r="P32" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q32">
         <v>34</v>
       </c>
-      <c r="Q32" t="s">
+      <c r="R32" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -2530,38 +2645,41 @@
       <c r="F33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G33" t="s">
-        <v>14</v>
-      </c>
-      <c r="I33" t="s">
-        <v>11</v>
+      <c r="G33" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H33" t="s">
+        <v>14</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
       </c>
       <c r="K33" t="s">
+        <v>11</v>
+      </c>
+      <c r="L33" t="s">
         <v>136</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>-35.186833300000004</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>174.11733330000001</v>
       </c>
-      <c r="N33" t="s">
+      <c r="O33" t="s">
         <v>138</v>
       </c>
-      <c r="O33" t="s">
-        <v>124</v>
-      </c>
-      <c r="P33">
+      <c r="P33" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q33">
         <v>34</v>
       </c>
-      <c r="Q33" t="s">
+      <c r="R33" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -2580,38 +2698,41 @@
       <c r="F34" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G34" t="s">
-        <v>14</v>
-      </c>
-      <c r="I34" t="s">
-        <v>11</v>
+      <c r="G34" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H34" t="s">
+        <v>14</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
       </c>
       <c r="K34" t="s">
+        <v>11</v>
+      </c>
+      <c r="L34" t="s">
         <v>136</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>-35.186833300000004</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>174.11733330000001</v>
       </c>
-      <c r="N34" t="s">
+      <c r="O34" t="s">
         <v>138</v>
       </c>
-      <c r="O34" t="s">
-        <v>124</v>
-      </c>
-      <c r="P34">
+      <c r="P34" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q34">
         <v>34</v>
       </c>
-      <c r="Q34" t="s">
+      <c r="R34" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>12</v>
       </c>
@@ -2630,38 +2751,41 @@
       <c r="F35" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G35" t="s">
-        <v>14</v>
-      </c>
-      <c r="I35" t="s">
-        <v>11</v>
+      <c r="G35" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H35" t="s">
+        <v>14</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
       </c>
       <c r="K35" t="s">
+        <v>11</v>
+      </c>
+      <c r="L35" t="s">
         <v>136</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>-35.186833300000004</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>174.11733330000001</v>
       </c>
-      <c r="N35" t="s">
+      <c r="O35" t="s">
         <v>138</v>
       </c>
-      <c r="O35" t="s">
-        <v>124</v>
-      </c>
-      <c r="P35">
+      <c r="P35" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q35">
         <v>34</v>
       </c>
-      <c r="Q35" t="s">
+      <c r="R35" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>12</v>
       </c>
@@ -2680,38 +2804,41 @@
       <c r="F36" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G36" t="s">
-        <v>14</v>
-      </c>
-      <c r="I36" t="s">
-        <v>11</v>
+      <c r="G36" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H36" t="s">
+        <v>14</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
       </c>
       <c r="K36" t="s">
+        <v>11</v>
+      </c>
+      <c r="L36" t="s">
         <v>136</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>-35.186833300000004</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>174.11733330000001</v>
       </c>
-      <c r="N36" t="s">
+      <c r="O36" t="s">
         <v>138</v>
       </c>
-      <c r="O36" t="s">
-        <v>124</v>
-      </c>
-      <c r="P36">
+      <c r="P36" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q36">
         <v>34</v>
       </c>
-      <c r="Q36" t="s">
+      <c r="R36" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>12</v>
       </c>
@@ -2730,38 +2857,41 @@
       <c r="F37" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G37" t="s">
-        <v>14</v>
-      </c>
-      <c r="I37" t="s">
-        <v>11</v>
+      <c r="G37" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H37" t="s">
+        <v>14</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
       </c>
       <c r="K37" t="s">
+        <v>11</v>
+      </c>
+      <c r="L37" t="s">
         <v>136</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>-35.186833300000004</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>174.11733330000001</v>
       </c>
-      <c r="N37" t="s">
+      <c r="O37" t="s">
         <v>138</v>
       </c>
-      <c r="O37" t="s">
-        <v>124</v>
-      </c>
-      <c r="P37">
+      <c r="P37" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q37">
         <v>34</v>
       </c>
-      <c r="Q37" t="s">
+      <c r="R37" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>12</v>
       </c>
@@ -2780,38 +2910,41 @@
       <c r="F38" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G38" t="s">
-        <v>14</v>
-      </c>
-      <c r="I38" t="s">
-        <v>11</v>
+      <c r="G38" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H38" t="s">
+        <v>14</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
       </c>
       <c r="K38" t="s">
+        <v>11</v>
+      </c>
+      <c r="L38" t="s">
         <v>136</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>-35.186833300000004</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>174.11733330000001</v>
       </c>
-      <c r="N38" t="s">
+      <c r="O38" t="s">
         <v>138</v>
       </c>
-      <c r="O38" t="s">
-        <v>124</v>
-      </c>
-      <c r="P38">
+      <c r="P38" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q38">
         <v>34</v>
       </c>
-      <c r="Q38" t="s">
+      <c r="R38" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>12</v>
       </c>
@@ -2830,38 +2963,41 @@
       <c r="F39" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G39" t="s">
-        <v>14</v>
-      </c>
-      <c r="I39" t="s">
-        <v>11</v>
+      <c r="G39" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H39" t="s">
+        <v>14</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
       </c>
       <c r="K39" t="s">
+        <v>11</v>
+      </c>
+      <c r="L39" t="s">
         <v>136</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>-35.186833300000004</v>
       </c>
-      <c r="M39">
+      <c r="N39">
         <v>174.11733330000001</v>
       </c>
-      <c r="N39" t="s">
+      <c r="O39" t="s">
         <v>138</v>
       </c>
-      <c r="O39" t="s">
-        <v>124</v>
-      </c>
-      <c r="P39">
+      <c r="P39" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q39">
         <v>34</v>
       </c>
-      <c r="Q39" t="s">
+      <c r="R39" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>12</v>
       </c>
@@ -2880,38 +3016,41 @@
       <c r="F40" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G40" t="s">
-        <v>14</v>
-      </c>
-      <c r="I40" t="s">
-        <v>11</v>
+      <c r="G40" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H40" t="s">
+        <v>14</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
       </c>
       <c r="K40" t="s">
+        <v>11</v>
+      </c>
+      <c r="L40" t="s">
         <v>136</v>
       </c>
-      <c r="L40">
+      <c r="M40">
         <v>-35.186833300000004</v>
       </c>
-      <c r="M40">
+      <c r="N40">
         <v>174.11733330000001</v>
       </c>
-      <c r="N40" t="s">
+      <c r="O40" t="s">
         <v>138</v>
       </c>
-      <c r="O40" t="s">
-        <v>124</v>
-      </c>
-      <c r="P40">
+      <c r="P40" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q40">
         <v>34</v>
       </c>
-      <c r="Q40" t="s">
+      <c r="R40" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>12</v>
       </c>
@@ -2930,38 +3069,41 @@
       <c r="F41" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G41" t="s">
-        <v>14</v>
-      </c>
-      <c r="I41" t="s">
-        <v>11</v>
+      <c r="G41" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H41" t="s">
+        <v>14</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
       </c>
       <c r="K41" t="s">
+        <v>11</v>
+      </c>
+      <c r="L41" t="s">
         <v>136</v>
       </c>
-      <c r="L41">
+      <c r="M41">
         <v>-35.186833300000004</v>
       </c>
-      <c r="M41">
+      <c r="N41">
         <v>174.11733330000001</v>
       </c>
-      <c r="N41" t="s">
+      <c r="O41" t="s">
         <v>138</v>
       </c>
-      <c r="O41" t="s">
-        <v>124</v>
-      </c>
-      <c r="P41">
+      <c r="P41" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q41">
         <v>34</v>
       </c>
-      <c r="Q41" t="s">
+      <c r="R41" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>12</v>
       </c>
@@ -2980,38 +3122,41 @@
       <c r="F42" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G42" t="s">
-        <v>14</v>
-      </c>
-      <c r="I42" t="s">
-        <v>11</v>
+      <c r="G42" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H42" t="s">
+        <v>14</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
       </c>
       <c r="K42" t="s">
+        <v>11</v>
+      </c>
+      <c r="L42" t="s">
         <v>136</v>
       </c>
-      <c r="L42">
+      <c r="M42">
         <v>-35.186833300000004</v>
       </c>
-      <c r="M42">
+      <c r="N42">
         <v>174.11733330000001</v>
       </c>
-      <c r="N42" t="s">
+      <c r="O42" t="s">
         <v>138</v>
       </c>
-      <c r="O42" t="s">
-        <v>124</v>
-      </c>
-      <c r="P42">
+      <c r="P42" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q42">
         <v>34</v>
       </c>
-      <c r="Q42" t="s">
+      <c r="R42" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>12</v>
       </c>
@@ -3030,38 +3175,41 @@
       <c r="F43" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G43" t="s">
-        <v>14</v>
-      </c>
-      <c r="I43" t="s">
-        <v>11</v>
+      <c r="G43" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H43" t="s">
+        <v>14</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
       </c>
       <c r="K43" t="s">
+        <v>11</v>
+      </c>
+      <c r="L43" t="s">
         <v>136</v>
       </c>
-      <c r="L43">
+      <c r="M43">
         <v>-35.186833300000004</v>
       </c>
-      <c r="M43">
+      <c r="N43">
         <v>174.11733330000001</v>
       </c>
-      <c r="N43" t="s">
+      <c r="O43" t="s">
         <v>138</v>
       </c>
-      <c r="O43" t="s">
-        <v>124</v>
-      </c>
-      <c r="P43">
+      <c r="P43" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q43">
         <v>34</v>
       </c>
-      <c r="Q43" t="s">
+      <c r="R43" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>12</v>
       </c>
@@ -3080,38 +3228,41 @@
       <c r="F44" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G44" t="s">
-        <v>14</v>
-      </c>
-      <c r="I44" t="s">
-        <v>11</v>
+      <c r="G44" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H44" t="s">
+        <v>14</v>
       </c>
       <c r="J44" t="s">
         <v>11</v>
       </c>
       <c r="K44" t="s">
+        <v>11</v>
+      </c>
+      <c r="L44" t="s">
         <v>136</v>
       </c>
-      <c r="L44">
+      <c r="M44">
         <v>-35.186833300000004</v>
       </c>
-      <c r="M44">
+      <c r="N44">
         <v>174.11733330000001</v>
       </c>
-      <c r="N44" t="s">
+      <c r="O44" t="s">
         <v>138</v>
       </c>
-      <c r="O44" t="s">
-        <v>124</v>
-      </c>
-      <c r="P44">
+      <c r="P44" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q44">
         <v>34</v>
       </c>
-      <c r="Q44" t="s">
+      <c r="R44" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>12</v>
       </c>
@@ -3130,38 +3281,41 @@
       <c r="F45" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G45" t="s">
-        <v>14</v>
-      </c>
-      <c r="I45" t="s">
-        <v>11</v>
+      <c r="G45" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H45" t="s">
+        <v>14</v>
       </c>
       <c r="J45" t="s">
         <v>11</v>
       </c>
       <c r="K45" t="s">
+        <v>11</v>
+      </c>
+      <c r="L45" t="s">
         <v>136</v>
       </c>
-      <c r="L45">
+      <c r="M45">
         <v>-35.186833300000004</v>
       </c>
-      <c r="M45">
+      <c r="N45">
         <v>174.11733330000001</v>
       </c>
-      <c r="N45" t="s">
+      <c r="O45" t="s">
         <v>138</v>
       </c>
-      <c r="O45" t="s">
-        <v>124</v>
-      </c>
-      <c r="P45">
+      <c r="P45" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q45">
         <v>34</v>
       </c>
-      <c r="Q45" t="s">
+      <c r="R45" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>12</v>
       </c>
@@ -3180,38 +3334,41 @@
       <c r="F46" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G46" t="s">
-        <v>14</v>
-      </c>
-      <c r="I46" t="s">
-        <v>11</v>
+      <c r="G46" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H46" t="s">
+        <v>14</v>
       </c>
       <c r="J46" t="s">
         <v>11</v>
       </c>
       <c r="K46" t="s">
+        <v>11</v>
+      </c>
+      <c r="L46" t="s">
         <v>136</v>
       </c>
-      <c r="L46">
+      <c r="M46">
         <v>-35.186833300000004</v>
       </c>
-      <c r="M46">
+      <c r="N46">
         <v>174.11733330000001</v>
       </c>
-      <c r="N46" t="s">
+      <c r="O46" t="s">
         <v>138</v>
       </c>
-      <c r="O46" t="s">
-        <v>124</v>
-      </c>
-      <c r="P46">
+      <c r="P46" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q46">
         <v>34</v>
       </c>
-      <c r="Q46" t="s">
+      <c r="R46" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>12</v>
       </c>
@@ -3230,38 +3387,41 @@
       <c r="F47" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G47" t="s">
-        <v>14</v>
-      </c>
-      <c r="I47" t="s">
-        <v>11</v>
+      <c r="G47" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H47" t="s">
+        <v>14</v>
       </c>
       <c r="J47" t="s">
         <v>11</v>
       </c>
       <c r="K47" t="s">
+        <v>11</v>
+      </c>
+      <c r="L47" t="s">
         <v>136</v>
       </c>
-      <c r="L47">
+      <c r="M47">
         <v>-35.186833300000004</v>
       </c>
-      <c r="M47">
+      <c r="N47">
         <v>174.11733330000001</v>
       </c>
-      <c r="N47" t="s">
+      <c r="O47" t="s">
         <v>138</v>
       </c>
-      <c r="O47" t="s">
-        <v>124</v>
-      </c>
-      <c r="P47">
+      <c r="P47" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q47">
         <v>34</v>
       </c>
-      <c r="Q47" t="s">
+      <c r="R47" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -3280,38 +3440,41 @@
       <c r="F48" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G48" t="s">
-        <v>14</v>
-      </c>
-      <c r="I48" t="s">
-        <v>11</v>
+      <c r="G48" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H48" t="s">
+        <v>14</v>
       </c>
       <c r="J48" t="s">
         <v>11</v>
       </c>
       <c r="K48" t="s">
+        <v>11</v>
+      </c>
+      <c r="L48" t="s">
         <v>136</v>
       </c>
-      <c r="L48">
+      <c r="M48">
         <v>-35.186833300000004</v>
       </c>
-      <c r="M48">
+      <c r="N48">
         <v>174.11733330000001</v>
       </c>
-      <c r="N48" t="s">
+      <c r="O48" t="s">
         <v>138</v>
       </c>
-      <c r="O48" t="s">
-        <v>124</v>
-      </c>
-      <c r="P48">
+      <c r="P48" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q48">
         <v>34</v>
       </c>
-      <c r="Q48" t="s">
+      <c r="R48" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>12</v>
       </c>
@@ -3330,38 +3493,41 @@
       <c r="F49" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G49" t="s">
-        <v>14</v>
-      </c>
-      <c r="I49" t="s">
-        <v>11</v>
+      <c r="G49" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H49" t="s">
+        <v>14</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>
       </c>
       <c r="K49" t="s">
+        <v>11</v>
+      </c>
+      <c r="L49" t="s">
         <v>136</v>
       </c>
-      <c r="L49">
+      <c r="M49">
         <v>-35.186833300000004</v>
       </c>
-      <c r="M49">
+      <c r="N49">
         <v>174.11733330000001</v>
       </c>
-      <c r="N49" t="s">
+      <c r="O49" t="s">
         <v>138</v>
       </c>
-      <c r="O49" t="s">
-        <v>124</v>
-      </c>
-      <c r="P49">
+      <c r="P49" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q49">
         <v>34</v>
       </c>
-      <c r="Q49" t="s">
+      <c r="R49" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>12</v>
       </c>
@@ -3380,38 +3546,41 @@
       <c r="F50" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G50" t="s">
-        <v>14</v>
-      </c>
-      <c r="I50" t="s">
-        <v>11</v>
+      <c r="G50" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H50" t="s">
+        <v>14</v>
       </c>
       <c r="J50" t="s">
         <v>11</v>
       </c>
       <c r="K50" t="s">
+        <v>11</v>
+      </c>
+      <c r="L50" t="s">
         <v>136</v>
       </c>
-      <c r="L50">
+      <c r="M50">
         <v>-35.186833300000004</v>
       </c>
-      <c r="M50">
+      <c r="N50">
         <v>174.11733330000001</v>
       </c>
-      <c r="N50" t="s">
+      <c r="O50" t="s">
         <v>138</v>
       </c>
-      <c r="O50" t="s">
-        <v>124</v>
-      </c>
-      <c r="P50">
+      <c r="P50" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q50">
         <v>34</v>
       </c>
-      <c r="Q50" t="s">
+      <c r="R50" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>12</v>
       </c>
@@ -3430,38 +3599,41 @@
       <c r="F51" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G51" t="s">
-        <v>14</v>
-      </c>
-      <c r="I51" t="s">
-        <v>11</v>
+      <c r="G51" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H51" t="s">
+        <v>14</v>
       </c>
       <c r="J51" t="s">
         <v>11</v>
       </c>
       <c r="K51" t="s">
+        <v>11</v>
+      </c>
+      <c r="L51" t="s">
         <v>136</v>
       </c>
-      <c r="L51">
+      <c r="M51">
         <v>-35.186833300000004</v>
       </c>
-      <c r="M51">
+      <c r="N51">
         <v>174.11733330000001</v>
       </c>
-      <c r="N51" t="s">
+      <c r="O51" t="s">
         <v>138</v>
       </c>
-      <c r="O51" t="s">
-        <v>124</v>
-      </c>
-      <c r="P51">
+      <c r="P51" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q51">
         <v>34</v>
       </c>
-      <c r="Q51" t="s">
+      <c r="R51" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>12</v>
       </c>
@@ -3480,38 +3652,41 @@
       <c r="F52" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G52" t="s">
-        <v>14</v>
-      </c>
-      <c r="I52" t="s">
-        <v>11</v>
+      <c r="G52" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H52" t="s">
+        <v>14</v>
       </c>
       <c r="J52" t="s">
         <v>11</v>
       </c>
       <c r="K52" t="s">
+        <v>11</v>
+      </c>
+      <c r="L52" t="s">
         <v>136</v>
       </c>
-      <c r="L52">
+      <c r="M52">
         <v>-35.186833300000004</v>
       </c>
-      <c r="M52">
+      <c r="N52">
         <v>174.11733330000001</v>
       </c>
-      <c r="N52" t="s">
+      <c r="O52" t="s">
         <v>138</v>
       </c>
-      <c r="O52" t="s">
-        <v>124</v>
-      </c>
-      <c r="P52">
+      <c r="P52" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q52">
         <v>34</v>
       </c>
-      <c r="Q52" t="s">
+      <c r="R52" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>12</v>
       </c>
@@ -3530,35 +3705,38 @@
       <c r="F53" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G53" t="s">
-        <v>14</v>
-      </c>
-      <c r="I53" t="s">
-        <v>11</v>
+      <c r="G53" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H53" t="s">
+        <v>14</v>
       </c>
       <c r="J53" t="s">
         <v>11</v>
       </c>
-      <c r="K53" s="2" t="s">
+      <c r="K53" t="s">
+        <v>11</v>
+      </c>
+      <c r="L53" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="L53">
+      <c r="M53">
         <v>-44.618299999999998</v>
       </c>
-      <c r="M53">
+      <c r="N53">
         <v>167.8588</v>
       </c>
-      <c r="N53" t="s">
+      <c r="O53" t="s">
         <v>142</v>
       </c>
-      <c r="O53" t="s">
-        <v>124</v>
-      </c>
-      <c r="P53">
+      <c r="P53" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q53">
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>12</v>
       </c>
@@ -3577,35 +3755,38 @@
       <c r="F54" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G54" t="s">
-        <v>14</v>
-      </c>
-      <c r="I54" t="s">
-        <v>11</v>
+      <c r="G54" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H54" t="s">
+        <v>14</v>
       </c>
       <c r="J54" t="s">
         <v>11</v>
       </c>
-      <c r="K54" s="2" t="s">
+      <c r="K54" t="s">
+        <v>11</v>
+      </c>
+      <c r="L54" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="L54">
+      <c r="M54">
         <v>-44.618299999999998</v>
       </c>
-      <c r="M54">
+      <c r="N54">
         <v>167.8588</v>
       </c>
-      <c r="N54" t="s">
+      <c r="O54" t="s">
         <v>142</v>
       </c>
-      <c r="O54" t="s">
-        <v>124</v>
-      </c>
-      <c r="P54">
+      <c r="P54" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q54">
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>12</v>
       </c>
@@ -3624,38 +3805,41 @@
       <c r="F55" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G55" t="s">
-        <v>14</v>
+      <c r="G55" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="H55" t="s">
+        <v>14</v>
+      </c>
+      <c r="I55" t="s">
         <v>22</v>
       </c>
-      <c r="I55" t="s">
-        <v>11</v>
-      </c>
       <c r="J55" t="s">
         <v>11</v>
       </c>
-      <c r="K55" s="2" t="s">
+      <c r="K55" t="s">
+        <v>11</v>
+      </c>
+      <c r="L55" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="L55">
+      <c r="M55">
         <v>-44.618299999999998</v>
       </c>
-      <c r="M55">
+      <c r="N55">
         <v>167.8588</v>
       </c>
-      <c r="N55" t="s">
+      <c r="O55" t="s">
         <v>142</v>
       </c>
-      <c r="O55" t="s">
-        <v>124</v>
-      </c>
-      <c r="P55">
+      <c r="P55" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q55">
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>12</v>
       </c>
@@ -3674,38 +3858,41 @@
       <c r="F56" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G56" t="s">
-        <v>14</v>
+      <c r="G56" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="H56" t="s">
+        <v>14</v>
+      </c>
+      <c r="I56" t="s">
         <v>22</v>
       </c>
-      <c r="I56" t="s">
-        <v>11</v>
-      </c>
       <c r="J56" t="s">
         <v>11</v>
       </c>
-      <c r="K56" s="2" t="s">
+      <c r="K56" t="s">
+        <v>11</v>
+      </c>
+      <c r="L56" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="L56">
+      <c r="M56">
         <v>-44.618299999999998</v>
       </c>
-      <c r="M56">
+      <c r="N56">
         <v>167.8588</v>
       </c>
-      <c r="N56" t="s">
+      <c r="O56" t="s">
         <v>142</v>
       </c>
-      <c r="O56" t="s">
-        <v>124</v>
-      </c>
-      <c r="P56">
+      <c r="P56" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q56">
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>12</v>
       </c>
@@ -3724,35 +3911,38 @@
       <c r="F57" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G57" t="s">
-        <v>14</v>
-      </c>
-      <c r="I57" t="s">
-        <v>11</v>
+      <c r="G57" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H57" t="s">
+        <v>14</v>
       </c>
       <c r="J57" t="s">
         <v>11</v>
       </c>
-      <c r="K57" s="2" t="s">
+      <c r="K57" t="s">
+        <v>11</v>
+      </c>
+      <c r="L57" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="L57">
+      <c r="M57">
         <v>-34.356670000000001</v>
       </c>
-      <c r="M57">
+      <c r="N57">
         <v>172.77</v>
       </c>
-      <c r="N57" t="s">
+      <c r="O57" t="s">
         <v>143</v>
       </c>
-      <c r="O57" t="s">
-        <v>124</v>
-      </c>
-      <c r="P57">
+      <c r="P57" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q57">
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>12</v>
       </c>
@@ -3771,38 +3961,41 @@
       <c r="F58" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="G58" t="s">
-        <v>14</v>
+      <c r="G58" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="H58" t="s">
+        <v>14</v>
+      </c>
+      <c r="I58" t="s">
         <v>22</v>
       </c>
-      <c r="I58" t="s">
-        <v>11</v>
-      </c>
       <c r="J58" t="s">
         <v>11</v>
       </c>
-      <c r="K58" s="2" t="s">
+      <c r="K58" t="s">
+        <v>11</v>
+      </c>
+      <c r="L58" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="L58">
+      <c r="M58">
         <v>-34.356670000000001</v>
       </c>
-      <c r="M58">
+      <c r="N58">
         <v>172.77</v>
       </c>
-      <c r="N58" t="s">
+      <c r="O58" t="s">
         <v>143</v>
       </c>
-      <c r="O58" t="s">
-        <v>124</v>
-      </c>
-      <c r="P58">
+      <c r="P58" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q58">
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>12</v>
       </c>
@@ -3821,35 +4014,38 @@
       <c r="F59" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G59" t="s">
-        <v>14</v>
-      </c>
-      <c r="I59" t="s">
-        <v>11</v>
+      <c r="G59" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H59" t="s">
+        <v>14</v>
       </c>
       <c r="J59" t="s">
         <v>11</v>
       </c>
-      <c r="K59" s="2" t="s">
+      <c r="K59" t="s">
+        <v>11</v>
+      </c>
+      <c r="L59" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="L59">
+      <c r="M59">
         <v>-34.356670000000001</v>
       </c>
-      <c r="M59">
+      <c r="N59">
         <v>172.77</v>
       </c>
-      <c r="N59" t="s">
+      <c r="O59" t="s">
         <v>143</v>
       </c>
-      <c r="O59" t="s">
-        <v>124</v>
-      </c>
-      <c r="P59">
+      <c r="P59" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q59">
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>12</v>
       </c>
@@ -3868,35 +4064,38 @@
       <c r="F60" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G60" t="s">
-        <v>14</v>
-      </c>
-      <c r="I60" t="s">
-        <v>11</v>
+      <c r="G60" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H60" t="s">
+        <v>14</v>
       </c>
       <c r="J60" t="s">
         <v>11</v>
       </c>
-      <c r="K60" s="2" t="s">
+      <c r="K60" t="s">
+        <v>11</v>
+      </c>
+      <c r="L60" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="L60">
+      <c r="M60">
         <v>-34.356670000000001</v>
       </c>
-      <c r="M60">
+      <c r="N60">
         <v>172.77</v>
       </c>
-      <c r="N60" t="s">
+      <c r="O60" t="s">
         <v>143</v>
       </c>
-      <c r="O60" t="s">
-        <v>124</v>
-      </c>
-      <c r="P60">
+      <c r="P60" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q60">
         <v>54</v>
       </c>
     </row>
-    <row r="61" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>12</v>
       </c>
@@ -3915,38 +4114,41 @@
       <c r="F61" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G61" t="s">
-        <v>14</v>
+      <c r="G61" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="H61" t="s">
+        <v>14</v>
+      </c>
+      <c r="I61" t="s">
         <v>22</v>
       </c>
-      <c r="I61" t="s">
-        <v>11</v>
-      </c>
       <c r="J61" t="s">
         <v>11</v>
       </c>
-      <c r="K61" s="2" t="s">
+      <c r="K61" t="s">
+        <v>11</v>
+      </c>
+      <c r="L61" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="L61">
+      <c r="M61">
         <v>-34.356670000000001</v>
       </c>
-      <c r="M61">
+      <c r="N61">
         <v>172.77</v>
       </c>
-      <c r="N61" t="s">
+      <c r="O61" t="s">
         <v>143</v>
       </c>
-      <c r="O61" t="s">
-        <v>124</v>
-      </c>
-      <c r="P61">
+      <c r="P61" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q61">
         <v>54</v>
       </c>
     </row>
-    <row r="62" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>12</v>
       </c>
@@ -3965,35 +4167,38 @@
       <c r="F62" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G62" t="s">
-        <v>14</v>
-      </c>
-      <c r="I62" t="s">
-        <v>11</v>
+      <c r="G62" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H62" t="s">
+        <v>14</v>
       </c>
       <c r="J62" t="s">
         <v>11</v>
       </c>
-      <c r="K62" s="2" t="s">
+      <c r="K62" t="s">
+        <v>11</v>
+      </c>
+      <c r="L62" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="L62">
+      <c r="M62">
         <v>-34.356670000000001</v>
       </c>
-      <c r="M62">
+      <c r="N62">
         <v>172.77</v>
       </c>
-      <c r="N62" t="s">
+      <c r="O62" t="s">
         <v>143</v>
       </c>
-      <c r="O62" t="s">
-        <v>124</v>
-      </c>
-      <c r="P62">
+      <c r="P62" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q62">
         <v>54</v>
       </c>
     </row>
-    <row r="63" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>12</v>
       </c>
@@ -4012,35 +4217,38 @@
       <c r="F63" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G63" t="s">
-        <v>14</v>
-      </c>
-      <c r="I63" t="s">
-        <v>11</v>
+      <c r="G63" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H63" t="s">
+        <v>14</v>
       </c>
       <c r="J63" t="s">
         <v>11</v>
       </c>
-      <c r="K63" s="2" t="s">
+      <c r="K63" t="s">
+        <v>11</v>
+      </c>
+      <c r="L63" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="L63">
+      <c r="M63">
         <v>-34.356670000000001</v>
       </c>
-      <c r="M63">
+      <c r="N63">
         <v>172.77</v>
       </c>
-      <c r="N63" t="s">
+      <c r="O63" t="s">
         <v>143</v>
       </c>
-      <c r="O63" t="s">
-        <v>124</v>
-      </c>
-      <c r="P63">
+      <c r="P63" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q63">
         <v>54</v>
       </c>
     </row>
-    <row r="64" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>12</v>
       </c>
@@ -4059,38 +4267,41 @@
       <c r="F64" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G64" t="s">
-        <v>14</v>
-      </c>
-      <c r="I64" t="s">
-        <v>11</v>
+      <c r="G64" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H64" t="s">
+        <v>14</v>
       </c>
       <c r="J64" t="s">
         <v>11</v>
       </c>
-      <c r="K64" s="2" t="s">
+      <c r="K64" t="s">
+        <v>11</v>
+      </c>
+      <c r="L64" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="L64">
+      <c r="M64">
         <v>-46.75</v>
       </c>
-      <c r="M64">
+      <c r="N64">
         <v>168.28</v>
       </c>
-      <c r="N64" t="s">
+      <c r="O64" t="s">
         <v>146</v>
       </c>
-      <c r="O64" t="s">
-        <v>124</v>
-      </c>
-      <c r="P64">
+      <c r="P64" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q64">
         <v>32</v>
       </c>
-      <c r="Q64" t="s">
+      <c r="R64" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="65" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>12</v>
       </c>
@@ -4109,38 +4320,41 @@
       <c r="F65" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G65" t="s">
-        <v>14</v>
-      </c>
-      <c r="I65" t="s">
-        <v>11</v>
+      <c r="G65" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H65" t="s">
+        <v>14</v>
       </c>
       <c r="J65" t="s">
         <v>11</v>
       </c>
-      <c r="K65" s="2" t="s">
+      <c r="K65" t="s">
+        <v>11</v>
+      </c>
+      <c r="L65" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="L65">
+      <c r="M65">
         <v>-46.75</v>
       </c>
-      <c r="M65">
+      <c r="N65">
         <v>168.28</v>
       </c>
-      <c r="N65" t="s">
+      <c r="O65" t="s">
         <v>146</v>
       </c>
-      <c r="O65" t="s">
-        <v>124</v>
-      </c>
-      <c r="P65">
+      <c r="P65" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q65">
         <v>32</v>
       </c>
-      <c r="Q65" t="s">
+      <c r="R65" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="66" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>12</v>
       </c>
@@ -4159,38 +4373,41 @@
       <c r="F66" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G66" t="s">
-        <v>14</v>
-      </c>
-      <c r="I66" t="s">
-        <v>11</v>
+      <c r="G66" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H66" t="s">
+        <v>14</v>
       </c>
       <c r="J66" t="s">
         <v>11</v>
       </c>
-      <c r="K66" s="2" t="s">
+      <c r="K66" t="s">
+        <v>11</v>
+      </c>
+      <c r="L66" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="L66">
+      <c r="M66">
         <v>-46.75</v>
       </c>
-      <c r="M66">
+      <c r="N66">
         <v>168.28</v>
       </c>
-      <c r="N66" t="s">
+      <c r="O66" t="s">
         <v>146</v>
       </c>
-      <c r="O66" t="s">
-        <v>124</v>
-      </c>
-      <c r="P66">
+      <c r="P66" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q66">
         <v>32</v>
       </c>
-      <c r="Q66" t="s">
+      <c r="R66" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="67" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>12</v>
       </c>
@@ -4209,38 +4426,41 @@
       <c r="F67" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G67" t="s">
-        <v>14</v>
-      </c>
-      <c r="I67" t="s">
-        <v>11</v>
+      <c r="G67" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H67" t="s">
+        <v>14</v>
       </c>
       <c r="J67" t="s">
         <v>11</v>
       </c>
-      <c r="K67" s="2" t="s">
+      <c r="K67" t="s">
+        <v>11</v>
+      </c>
+      <c r="L67" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="L67">
+      <c r="M67">
         <v>-46.75</v>
       </c>
-      <c r="M67">
+      <c r="N67">
         <v>168.28</v>
       </c>
-      <c r="N67" t="s">
+      <c r="O67" t="s">
         <v>146</v>
       </c>
-      <c r="O67" t="s">
-        <v>124</v>
-      </c>
-      <c r="P67">
+      <c r="P67" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q67">
         <v>32</v>
       </c>
-      <c r="Q67" t="s">
+      <c r="R67" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="68" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>12</v>
       </c>
@@ -4259,38 +4479,41 @@
       <c r="F68" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G68" t="s">
-        <v>14</v>
-      </c>
-      <c r="I68" t="s">
-        <v>11</v>
+      <c r="G68" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H68" t="s">
+        <v>14</v>
       </c>
       <c r="J68" t="s">
         <v>11</v>
       </c>
-      <c r="K68" s="2" t="s">
+      <c r="K68" t="s">
+        <v>11</v>
+      </c>
+      <c r="L68" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="L68">
+      <c r="M68">
         <v>-46.75</v>
       </c>
-      <c r="M68">
+      <c r="N68">
         <v>168.28</v>
       </c>
-      <c r="N68" t="s">
+      <c r="O68" t="s">
         <v>146</v>
       </c>
-      <c r="O68" t="s">
-        <v>124</v>
-      </c>
-      <c r="P68">
+      <c r="P68" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q68">
         <v>32</v>
       </c>
-      <c r="Q68" t="s">
+      <c r="R68" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="69" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>12</v>
       </c>
@@ -4309,38 +4532,41 @@
       <c r="F69" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G69" t="s">
-        <v>14</v>
-      </c>
-      <c r="I69" t="s">
-        <v>11</v>
+      <c r="G69" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H69" t="s">
+        <v>14</v>
       </c>
       <c r="J69" t="s">
         <v>11</v>
       </c>
-      <c r="K69" s="2" t="s">
+      <c r="K69" t="s">
+        <v>11</v>
+      </c>
+      <c r="L69" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="L69">
+      <c r="M69">
         <v>-46.75</v>
       </c>
-      <c r="M69">
+      <c r="N69">
         <v>168.28</v>
       </c>
-      <c r="N69" t="s">
+      <c r="O69" t="s">
         <v>146</v>
       </c>
-      <c r="O69" t="s">
-        <v>124</v>
-      </c>
-      <c r="P69">
+      <c r="P69" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q69">
         <v>32</v>
       </c>
-      <c r="Q69" t="s">
+      <c r="R69" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="70" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>12</v>
       </c>
@@ -4359,41 +4585,44 @@
       <c r="F70" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G70" t="s">
-        <v>14</v>
+      <c r="G70" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="H70" t="s">
+        <v>14</v>
+      </c>
+      <c r="I70" t="s">
         <v>22</v>
       </c>
-      <c r="I70" t="s">
-        <v>11</v>
-      </c>
       <c r="J70" t="s">
         <v>11</v>
       </c>
-      <c r="K70" s="2" t="s">
+      <c r="K70" t="s">
+        <v>11</v>
+      </c>
+      <c r="L70" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="L70">
+      <c r="M70">
         <v>-46.75</v>
       </c>
-      <c r="M70">
+      <c r="N70">
         <v>168.28</v>
       </c>
-      <c r="N70" t="s">
+      <c r="O70" t="s">
         <v>146</v>
       </c>
-      <c r="O70" t="s">
-        <v>124</v>
-      </c>
-      <c r="P70">
+      <c r="P70" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q70">
         <v>32</v>
       </c>
-      <c r="Q70" t="s">
+      <c r="R70" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="71" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>12</v>
       </c>
@@ -4412,38 +4641,41 @@
       <c r="F71" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G71" t="s">
-        <v>14</v>
-      </c>
-      <c r="I71" t="s">
-        <v>11</v>
+      <c r="G71" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H71" t="s">
+        <v>14</v>
       </c>
       <c r="J71" t="s">
         <v>11</v>
       </c>
-      <c r="K71" s="2" t="s">
+      <c r="K71" t="s">
+        <v>11</v>
+      </c>
+      <c r="L71" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="L71">
+      <c r="M71">
         <v>-46.75</v>
       </c>
-      <c r="M71">
+      <c r="N71">
         <v>168.28</v>
       </c>
-      <c r="N71" t="s">
+      <c r="O71" t="s">
         <v>146</v>
       </c>
-      <c r="O71" t="s">
-        <v>124</v>
-      </c>
-      <c r="P71">
+      <c r="P71" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q71">
         <v>32</v>
       </c>
-      <c r="Q71" t="s">
+      <c r="R71" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="72" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>12</v>
       </c>
@@ -4462,38 +4694,41 @@
       <c r="F72" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G72" t="s">
-        <v>14</v>
-      </c>
-      <c r="I72" t="s">
-        <v>11</v>
+      <c r="G72" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H72" t="s">
+        <v>14</v>
       </c>
       <c r="J72" t="s">
         <v>11</v>
       </c>
-      <c r="K72" s="2" t="s">
+      <c r="K72" t="s">
+        <v>11</v>
+      </c>
+      <c r="L72" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="L72">
+      <c r="M72">
         <v>-46.75</v>
       </c>
-      <c r="M72">
+      <c r="N72">
         <v>168.28</v>
       </c>
-      <c r="N72" t="s">
+      <c r="O72" t="s">
         <v>146</v>
       </c>
-      <c r="O72" t="s">
-        <v>124</v>
-      </c>
-      <c r="P72">
+      <c r="P72" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q72">
         <v>32</v>
       </c>
-      <c r="Q72" t="s">
+      <c r="R72" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="73" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>12</v>
       </c>
@@ -4512,38 +4747,41 @@
       <c r="F73" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G73" t="s">
-        <v>14</v>
-      </c>
-      <c r="I73" t="s">
-        <v>11</v>
+      <c r="G73" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H73" t="s">
+        <v>14</v>
       </c>
       <c r="J73" t="s">
         <v>11</v>
       </c>
-      <c r="K73" s="2" t="s">
+      <c r="K73" t="s">
+        <v>11</v>
+      </c>
+      <c r="L73" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="L73">
+      <c r="M73">
         <v>-46.75</v>
       </c>
-      <c r="M73">
+      <c r="N73">
         <v>168.28</v>
       </c>
-      <c r="N73" t="s">
+      <c r="O73" t="s">
         <v>146</v>
       </c>
-      <c r="O73" t="s">
-        <v>124</v>
-      </c>
-      <c r="P73">
+      <c r="P73" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q73">
         <v>32</v>
       </c>
-      <c r="Q73" t="s">
+      <c r="R73" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="74" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>12</v>
       </c>
@@ -4562,38 +4800,41 @@
       <c r="F74" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G74" t="s">
-        <v>14</v>
-      </c>
-      <c r="I74" t="s">
-        <v>11</v>
+      <c r="G74" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H74" t="s">
+        <v>14</v>
       </c>
       <c r="J74" t="s">
         <v>11</v>
       </c>
-      <c r="K74" s="2" t="s">
+      <c r="K74" t="s">
+        <v>11</v>
+      </c>
+      <c r="L74" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="L74">
+      <c r="M74">
         <v>-46.75</v>
       </c>
-      <c r="M74">
+      <c r="N74">
         <v>168.28</v>
       </c>
-      <c r="N74" t="s">
+      <c r="O74" t="s">
         <v>146</v>
       </c>
-      <c r="O74" t="s">
-        <v>124</v>
-      </c>
-      <c r="P74">
+      <c r="P74" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q74">
         <v>32</v>
       </c>
-      <c r="Q74" t="s">
+      <c r="R74" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="75" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>12</v>
       </c>
@@ -4612,38 +4853,41 @@
       <c r="F75" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G75" t="s">
-        <v>14</v>
-      </c>
-      <c r="I75" t="s">
-        <v>11</v>
+      <c r="G75" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H75" t="s">
+        <v>14</v>
       </c>
       <c r="J75" t="s">
         <v>11</v>
       </c>
-      <c r="K75" s="2" t="s">
+      <c r="K75" t="s">
+        <v>11</v>
+      </c>
+      <c r="L75" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="L75">
+      <c r="M75">
         <v>-46.75</v>
       </c>
-      <c r="M75">
+      <c r="N75">
         <v>168.28</v>
       </c>
-      <c r="N75" t="s">
+      <c r="O75" t="s">
         <v>146</v>
       </c>
-      <c r="O75" t="s">
-        <v>124</v>
-      </c>
-      <c r="P75">
+      <c r="P75" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q75">
         <v>32</v>
       </c>
-      <c r="Q75" t="s">
+      <c r="R75" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="76" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>12</v>
       </c>
@@ -4662,38 +4906,41 @@
       <c r="F76" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G76" t="s">
-        <v>14</v>
-      </c>
-      <c r="I76" t="s">
-        <v>11</v>
+      <c r="G76" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H76" t="s">
+        <v>14</v>
       </c>
       <c r="J76" t="s">
         <v>11</v>
       </c>
-      <c r="K76" s="2" t="s">
+      <c r="K76" t="s">
+        <v>11</v>
+      </c>
+      <c r="L76" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="L76">
+      <c r="M76">
         <v>-46.75</v>
       </c>
-      <c r="M76">
+      <c r="N76">
         <v>168.28</v>
       </c>
-      <c r="N76" t="s">
+      <c r="O76" t="s">
         <v>146</v>
       </c>
-      <c r="O76" t="s">
-        <v>124</v>
-      </c>
-      <c r="P76">
+      <c r="P76" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q76">
         <v>32</v>
       </c>
-      <c r="Q76" t="s">
+      <c r="R76" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="77" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>12</v>
       </c>
@@ -4712,38 +4959,61 @@
       <c r="F77" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G77" t="s">
-        <v>14</v>
+      <c r="G77" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="H77" t="s">
+        <v>14</v>
+      </c>
+      <c r="I77" t="s">
         <v>22</v>
       </c>
-      <c r="I77" t="s">
-        <v>11</v>
-      </c>
       <c r="J77" t="s">
         <v>11</v>
       </c>
-      <c r="K77" s="2" t="s">
+      <c r="K77" t="s">
+        <v>11</v>
+      </c>
+      <c r="L77" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="L77">
+      <c r="M77">
         <v>-46.75</v>
       </c>
-      <c r="M77">
+      <c r="N77">
         <v>168.28</v>
       </c>
-      <c r="N77" t="s">
+      <c r="O77" t="s">
         <v>146</v>
       </c>
-      <c r="O77" t="s">
-        <v>124</v>
-      </c>
-      <c r="P77">
+      <c r="P77" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q77">
         <v>32</v>
       </c>
-      <c r="Q77" t="s">
+      <c r="R77" t="s">
         <v>147</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D5C1ED-B79F-4D40-B1D7-0DBB1682E7E0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/Data/metadata/NIWA_metadata.xlsx
+++ b/Data/metadata/NIWA_metadata.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mab/Documents/GitHub/bryozoa/magnifica/Data/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7225A2D-52D3-3446-829D-7597FCCB00F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61C5E28-B9DB-874F-950E-539E038063F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2300" yWindow="2360" windowWidth="26840" windowHeight="15880" xr2:uid="{45F7FB78-3F76-BD4A-B1B5-CF2CD846B872}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="134">
   <si>
     <t>File_name</t>
   </si>
@@ -123,123 +122,63 @@
     <t>Steginoporella magnifica NIWA 93133 KWB-Feb A1</t>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
     <t>Steginoporella magnifica NIWA 93133 KWB-Feb A2</t>
   </si>
   <si>
-    <t>A2</t>
-  </si>
-  <si>
     <t>Steginoporella magnifica NIWA 93133 KWB-Feb A3</t>
   </si>
   <si>
-    <t>A3</t>
-  </si>
-  <si>
     <t>Steginoporella magnifica NIWA 93133 KWB-Feb A4</t>
   </si>
   <si>
-    <t>A4</t>
-  </si>
-  <si>
     <t>Steginoporella magnifica NIWA 93133 KWB-Feb A5</t>
   </si>
   <si>
-    <t>A5</t>
-  </si>
-  <si>
     <t>Steginoporella magnifica NIWA 93133 KWB-Feb A6</t>
   </si>
   <si>
-    <t>A6</t>
-  </si>
-  <si>
     <t>Steginoporella magnifica NIWA 93133 KWB-Feb A7</t>
   </si>
   <si>
-    <t>A7</t>
-  </si>
-  <si>
     <t>Steginoporella magnifica NIWA 93133 KWB-Feb A8</t>
   </si>
   <si>
-    <t>A8</t>
-  </si>
-  <si>
     <t>Steginoporella magnifica NIWA 93133 KWB-Feb B1</t>
   </si>
   <si>
-    <t>B1</t>
-  </si>
-  <si>
     <t>Steginoporella magnifica NIWA 93133 KWB-Feb B2</t>
   </si>
   <si>
-    <t>B2</t>
-  </si>
-  <si>
     <t>Steginoporella magnifica NIWA 93133 KWB-Feb B3</t>
   </si>
   <si>
-    <t>B3</t>
-  </si>
-  <si>
     <t>Steginoporella magnifica NIWA 93133 KWB-Feb B4</t>
   </si>
   <si>
-    <t>B4</t>
-  </si>
-  <si>
     <t>Steginoporella magnifica NIWA 93133 KWB-Feb B5</t>
   </si>
   <si>
-    <t>B5</t>
-  </si>
-  <si>
     <t>Steginoporella magnifica NIWA 93133 KWB-Feb B6</t>
   </si>
   <si>
-    <t>B6</t>
-  </si>
-  <si>
     <t>Steginoporella magnifica NIWA 93133 KWB-Feb B7</t>
   </si>
   <si>
-    <t>B7</t>
-  </si>
-  <si>
     <t>Steginoporella magnifica NIWA 93133 KWB-Feb B8</t>
   </si>
   <si>
-    <t>B8</t>
-  </si>
-  <si>
     <t>Steginoporella magnifica NIWA 93133 KWB-Feb B9</t>
   </si>
   <si>
-    <t>B9</t>
-  </si>
-  <si>
     <t>Steginoporella magnifica NIWA 93133 KWB-Feb B10</t>
   </si>
   <si>
-    <t>B10</t>
-  </si>
-  <si>
     <t>Steginoporella magnifica NIWA 93133 KWB-Feb C1</t>
   </si>
   <si>
-    <t>C1</t>
-  </si>
-  <si>
     <t>Steginoporella magnifica NIWA 93133 KWB-Feb C2</t>
   </si>
   <si>
-    <t>C2</t>
-  </si>
-  <si>
     <t>Steginoporella magnifica NIWA 98542 KAH0907.15 1</t>
   </si>
   <si>
@@ -381,9 +320,6 @@
     <t>Steginoporella magnifica NIWA 122669 B224 C3</t>
   </si>
   <si>
-    <t>C3</t>
-  </si>
-  <si>
     <t>collector</t>
   </si>
   <si>
@@ -438,9 +374,6 @@
     <t>NIWA 75440</t>
   </si>
   <si>
-    <t>NIWA 93133</t>
-  </si>
-  <si>
     <t>Feb 2 2010</t>
   </si>
   <si>
@@ -474,18 +407,12 @@
     <t>B224</t>
   </si>
   <si>
-    <t>NIWA 122669</t>
-  </si>
-  <si>
     <t>May 21 1960</t>
   </si>
   <si>
     <t>Foveaux Strait</t>
   </si>
   <si>
-    <t>ile-name sequence is: Taxon name, NIWA registration number, station number, and image number. A, B, etc, refer to different colonies (or fragments of colonies) of the same species from the same station.</t>
-  </si>
-  <si>
     <t>use</t>
   </si>
   <si>
@@ -493,13 +420,31 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>NIWA 93133 A</t>
+  </si>
+  <si>
+    <t>NIWA 93133 B</t>
+  </si>
+  <si>
+    <t>NIWA 93133 C</t>
+  </si>
+  <si>
+    <t>NIWA 122669 A</t>
+  </si>
+  <si>
+    <t>NIWA 122669 B</t>
+  </si>
+  <si>
+    <t>NIWA 122669 C</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -513,11 +458,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos"/>
     </font>
   </fonts>
   <fills count="2">
@@ -540,13 +480,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -884,12 +823,13 @@
   <dimension ref="A1:R77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="57.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
@@ -912,7 +852,7 @@
         <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="H1" t="s">
         <v>3</v>
@@ -921,31 +861,31 @@
         <v>4</v>
       </c>
       <c r="J1" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="K1" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="L1" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="M1" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="N1" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="O1" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="P1" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="Q1" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="R1" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
@@ -959,7 +899,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -968,7 +908,7 @@
         <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="H2" t="s">
         <v>7</v>
@@ -980,7 +920,7 @@
         <v>11</v>
       </c>
       <c r="L2" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="M2">
         <v>-34.356670000000001</v>
@@ -989,10 +929,10 @@
         <v>172.77</v>
       </c>
       <c r="O2" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="P2" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="Q2">
         <v>54</v>
@@ -1009,13 +949,16 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>131</v>
+        <v>110</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="H3" t="s">
         <v>14</v>
@@ -1030,7 +973,7 @@
         <v>11</v>
       </c>
       <c r="L3" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="M3">
         <v>-34.356670000000001</v>
@@ -1039,10 +982,10 @@
         <v>172.77</v>
       </c>
       <c r="O3" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="P3" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="Q3">
         <v>54</v>
@@ -1059,7 +1002,7 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1068,7 +1011,7 @@
         <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="H4" t="s">
         <v>14</v>
@@ -1080,7 +1023,7 @@
         <v>11</v>
       </c>
       <c r="L4" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="M4">
         <v>-37.601999999999997</v>
@@ -1089,16 +1032,16 @@
         <v>178.8955</v>
       </c>
       <c r="O4" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="P4" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="Q4">
         <v>60</v>
       </c>
       <c r="R4" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
@@ -1112,7 +1055,7 @@
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -1121,7 +1064,7 @@
         <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="H5" t="s">
         <v>14</v>
@@ -1133,7 +1076,7 @@
         <v>11</v>
       </c>
       <c r="L5" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="M5">
         <v>-37.601999999999997</v>
@@ -1142,16 +1085,16 @@
         <v>178.8955</v>
       </c>
       <c r="O5" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="P5" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="Q5">
         <v>60</v>
       </c>
       <c r="R5" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
@@ -1165,7 +1108,7 @@
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -1174,7 +1117,7 @@
         <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="H6" t="s">
         <v>14</v>
@@ -1186,7 +1129,7 @@
         <v>11</v>
       </c>
       <c r="L6" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="M6">
         <v>-37.601999999999997</v>
@@ -1195,16 +1138,16 @@
         <v>178.8955</v>
       </c>
       <c r="O6" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="P6" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="Q6">
         <v>60</v>
       </c>
       <c r="R6" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
@@ -1218,7 +1161,7 @@
         <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="E7">
         <v>4</v>
@@ -1227,7 +1170,7 @@
         <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="H7" t="s">
         <v>14</v>
@@ -1239,7 +1182,7 @@
         <v>11</v>
       </c>
       <c r="L7" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="M7">
         <v>-37.601999999999997</v>
@@ -1248,16 +1191,16 @@
         <v>178.8955</v>
       </c>
       <c r="O7" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="P7" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="Q7">
         <v>60</v>
       </c>
       <c r="R7" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
@@ -1271,7 +1214,7 @@
         <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="E8">
         <v>5</v>
@@ -1280,7 +1223,7 @@
         <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="H8" t="s">
         <v>14</v>
@@ -1295,7 +1238,7 @@
         <v>11</v>
       </c>
       <c r="L8" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="M8">
         <v>-37.601999999999997</v>
@@ -1304,16 +1247,16 @@
         <v>178.8955</v>
       </c>
       <c r="O8" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="P8" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="Q8">
         <v>60</v>
       </c>
       <c r="R8" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
@@ -1327,7 +1270,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="E9">
         <v>6</v>
@@ -1336,7 +1279,7 @@
         <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="H9" t="s">
         <v>14</v>
@@ -1351,7 +1294,7 @@
         <v>11</v>
       </c>
       <c r="L9" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="M9">
         <v>-37.601999999999997</v>
@@ -1360,16 +1303,16 @@
         <v>178.8955</v>
       </c>
       <c r="O9" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="P9" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="Q9">
         <v>60</v>
       </c>
       <c r="R9" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
@@ -1383,7 +1326,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="E10">
         <v>7</v>
@@ -1392,7 +1335,7 @@
         <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="H10" t="s">
         <v>14</v>
@@ -1407,7 +1350,7 @@
         <v>11</v>
       </c>
       <c r="L10" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="M10">
         <v>-37.601999999999997</v>
@@ -1416,16 +1359,16 @@
         <v>178.8955</v>
       </c>
       <c r="O10" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="P10" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="Q10">
         <v>60</v>
       </c>
       <c r="R10" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
@@ -1439,7 +1382,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="E11">
         <v>8</v>
@@ -1448,7 +1391,7 @@
         <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="H11" t="s">
         <v>14</v>
@@ -1460,7 +1403,7 @@
         <v>11</v>
       </c>
       <c r="L11" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="M11">
         <v>-37.601999999999997</v>
@@ -1469,16 +1412,16 @@
         <v>178.8955</v>
       </c>
       <c r="O11" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="P11" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="Q11">
         <v>60</v>
       </c>
       <c r="R11" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
@@ -1492,16 +1435,16 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>133</v>
-      </c>
-      <c r="E12" t="s">
-        <v>28</v>
+        <v>128</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
       </c>
       <c r="F12" t="s">
         <v>8</v>
       </c>
       <c r="G12" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="H12" t="s">
         <v>14</v>
@@ -1516,7 +1459,7 @@
         <v>11</v>
       </c>
       <c r="L12" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="M12">
         <v>-35.262650000000001</v>
@@ -1525,16 +1468,16 @@
         <v>174.18180000000001</v>
       </c>
       <c r="O12" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="P12" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="Q12">
         <v>5.4</v>
       </c>
       <c r="R12" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
@@ -1545,19 +1488,19 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>133</v>
-      </c>
-      <c r="E13" t="s">
-        <v>30</v>
+        <v>128</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
       </c>
       <c r="F13" t="s">
         <v>8</v>
       </c>
       <c r="G13" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="H13" t="s">
         <v>14</v>
@@ -1572,7 +1515,7 @@
         <v>11</v>
       </c>
       <c r="L13" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="M13">
         <v>-35.262650000000001</v>
@@ -1581,16 +1524,16 @@
         <v>174.18180000000001</v>
       </c>
       <c r="O13" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="P13" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="Q13">
         <v>5.4</v>
       </c>
       <c r="R13" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
@@ -1601,19 +1544,19 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>133</v>
-      </c>
-      <c r="E14" t="s">
-        <v>32</v>
+        <v>128</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
       </c>
       <c r="F14" t="s">
         <v>8</v>
       </c>
       <c r="G14" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="H14" t="s">
         <v>14</v>
@@ -1628,7 +1571,7 @@
         <v>11</v>
       </c>
       <c r="L14" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="M14">
         <v>-35.262650000000001</v>
@@ -1637,16 +1580,16 @@
         <v>174.18180000000001</v>
       </c>
       <c r="O14" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="P14" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="Q14">
         <v>5.4</v>
       </c>
       <c r="R14" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
@@ -1657,19 +1600,19 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>133</v>
-      </c>
-      <c r="E15" t="s">
-        <v>34</v>
+        <v>128</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>14</v>
@@ -1682,7 +1625,7 @@
         <v>11</v>
       </c>
       <c r="L15" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="M15">
         <v>-35.262650000000001</v>
@@ -1691,16 +1634,16 @@
         <v>174.18180000000001</v>
       </c>
       <c r="O15" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="P15" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="Q15">
         <v>5.4</v>
       </c>
       <c r="R15" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
@@ -1711,19 +1654,19 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>133</v>
-      </c>
-      <c r="E16" t="s">
-        <v>36</v>
+        <v>128</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>14</v>
@@ -1736,7 +1679,7 @@
         <v>11</v>
       </c>
       <c r="L16" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="M16">
         <v>-35.262650000000001</v>
@@ -1745,16 +1688,16 @@
         <v>174.18180000000001</v>
       </c>
       <c r="O16" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="P16" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="Q16">
         <v>5.4</v>
       </c>
       <c r="R16" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
@@ -1765,19 +1708,19 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>133</v>
-      </c>
-      <c r="E17" t="s">
-        <v>38</v>
+        <v>128</v>
+      </c>
+      <c r="E17">
+        <v>6</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>14</v>
@@ -1789,7 +1732,7 @@
         <v>11</v>
       </c>
       <c r="L17" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="M17">
         <v>-35.262650000000001</v>
@@ -1798,16 +1741,16 @@
         <v>174.18180000000001</v>
       </c>
       <c r="O17" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="P17" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="Q17">
         <v>5.4</v>
       </c>
       <c r="R17" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
@@ -1818,19 +1761,19 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>133</v>
-      </c>
-      <c r="E18" t="s">
-        <v>40</v>
+        <v>128</v>
+      </c>
+      <c r="E18">
+        <v>7</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="H18" t="s">
         <v>14</v>
@@ -1845,7 +1788,7 @@
         <v>11</v>
       </c>
       <c r="L18" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="M18">
         <v>-35.262650000000001</v>
@@ -1854,16 +1797,16 @@
         <v>174.18180000000001</v>
       </c>
       <c r="O18" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="P18" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="Q18">
         <v>5.4</v>
       </c>
       <c r="R18" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
@@ -1874,19 +1817,19 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D19" t="s">
-        <v>133</v>
-      </c>
-      <c r="E19" t="s">
-        <v>42</v>
+        <v>128</v>
+      </c>
+      <c r="E19">
+        <v>8</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="H19" t="s">
         <v>14</v>
@@ -1901,7 +1844,7 @@
         <v>11</v>
       </c>
       <c r="L19" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="M19">
         <v>-35.262650000000001</v>
@@ -1910,16 +1853,16 @@
         <v>174.18180000000001</v>
       </c>
       <c r="O19" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="P19" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="Q19">
         <v>5.4</v>
       </c>
       <c r="R19" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
@@ -1930,19 +1873,19 @@
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D20" t="s">
-        <v>133</v>
-      </c>
-      <c r="E20" t="s">
-        <v>44</v>
+        <v>129</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="H20" t="s">
         <v>14</v>
@@ -1954,7 +1897,7 @@
         <v>11</v>
       </c>
       <c r="L20" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="M20">
         <v>-35.262650000000001</v>
@@ -1963,16 +1906,16 @@
         <v>174.18180000000001</v>
       </c>
       <c r="O20" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="P20" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="Q20">
         <v>5.4</v>
       </c>
       <c r="R20" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
@@ -1983,19 +1926,19 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D21" t="s">
-        <v>133</v>
-      </c>
-      <c r="E21" t="s">
-        <v>46</v>
+        <v>129</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="H21" t="s">
         <v>14</v>
@@ -2010,7 +1953,7 @@
         <v>11</v>
       </c>
       <c r="L21" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="M21">
         <v>-35.262650000000001</v>
@@ -2019,16 +1962,16 @@
         <v>174.18180000000001</v>
       </c>
       <c r="O21" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="P21" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="Q21">
         <v>5.4</v>
       </c>
       <c r="R21" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
@@ -2039,19 +1982,19 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D22" t="s">
-        <v>133</v>
-      </c>
-      <c r="E22" t="s">
-        <v>48</v>
+        <v>129</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="H22" t="s">
         <v>14</v>
@@ -2066,7 +2009,7 @@
         <v>11</v>
       </c>
       <c r="L22" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="M22">
         <v>-35.262650000000001</v>
@@ -2075,16 +2018,16 @@
         <v>174.18180000000001</v>
       </c>
       <c r="O22" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="P22" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="Q22">
         <v>5.4</v>
       </c>
       <c r="R22" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
@@ -2095,19 +2038,19 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="D23" t="s">
-        <v>133</v>
-      </c>
-      <c r="E23" t="s">
-        <v>50</v>
+        <v>129</v>
+      </c>
+      <c r="E23">
+        <v>4</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="H23" t="s">
         <v>14</v>
@@ -2122,7 +2065,7 @@
         <v>11</v>
       </c>
       <c r="L23" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="M23">
         <v>-35.262650000000001</v>
@@ -2131,16 +2074,16 @@
         <v>174.18180000000001</v>
       </c>
       <c r="O23" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="P23" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="Q23">
         <v>5.4</v>
       </c>
       <c r="R23" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
@@ -2151,19 +2094,19 @@
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="D24" t="s">
-        <v>133</v>
-      </c>
-      <c r="E24" t="s">
-        <v>52</v>
+        <v>129</v>
+      </c>
+      <c r="E24">
+        <v>5</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="H24" t="s">
         <v>14</v>
@@ -2178,7 +2121,7 @@
         <v>11</v>
       </c>
       <c r="L24" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="M24">
         <v>-35.262650000000001</v>
@@ -2187,16 +2130,16 @@
         <v>174.18180000000001</v>
       </c>
       <c r="O24" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="P24" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="Q24">
         <v>5.4</v>
       </c>
       <c r="R24" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
@@ -2207,19 +2150,19 @@
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D25" t="s">
-        <v>133</v>
-      </c>
-      <c r="E25" t="s">
-        <v>54</v>
+        <v>129</v>
+      </c>
+      <c r="E25">
+        <v>6</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="H25" t="s">
         <v>14</v>
@@ -2231,7 +2174,7 @@
         <v>11</v>
       </c>
       <c r="L25" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="M25">
         <v>-35.262650000000001</v>
@@ -2240,16 +2183,16 @@
         <v>174.18180000000001</v>
       </c>
       <c r="O25" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="P25" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="Q25">
         <v>5.4</v>
       </c>
       <c r="R25" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
@@ -2260,19 +2203,19 @@
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="D26" t="s">
-        <v>133</v>
-      </c>
-      <c r="E26" t="s">
-        <v>56</v>
+        <v>129</v>
+      </c>
+      <c r="E26">
+        <v>7</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="H26" t="s">
         <v>14</v>
@@ -2287,7 +2230,7 @@
         <v>11</v>
       </c>
       <c r="L26" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="M26">
         <v>-35.262650000000001</v>
@@ -2296,16 +2239,16 @@
         <v>174.18180000000001</v>
       </c>
       <c r="O26" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="P26" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="Q26">
         <v>5.4</v>
       </c>
       <c r="R26" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
@@ -2316,19 +2259,19 @@
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D27" t="s">
-        <v>133</v>
-      </c>
-      <c r="E27" t="s">
-        <v>58</v>
+        <v>129</v>
+      </c>
+      <c r="E27">
+        <v>8</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="H27" t="s">
         <v>14</v>
@@ -2340,7 +2283,7 @@
         <v>11</v>
       </c>
       <c r="L27" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="M27">
         <v>-35.262650000000001</v>
@@ -2349,16 +2292,16 @@
         <v>174.18180000000001</v>
       </c>
       <c r="O27" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="P27" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="Q27">
         <v>5.4</v>
       </c>
       <c r="R27" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
@@ -2369,19 +2312,19 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="D28" t="s">
-        <v>133</v>
-      </c>
-      <c r="E28" t="s">
-        <v>60</v>
+        <v>129</v>
+      </c>
+      <c r="E28">
+        <v>9</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="H28" t="s">
         <v>14</v>
@@ -2393,7 +2336,7 @@
         <v>11</v>
       </c>
       <c r="L28" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="M28">
         <v>-35.262650000000001</v>
@@ -2402,16 +2345,16 @@
         <v>174.18180000000001</v>
       </c>
       <c r="O28" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="P28" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="Q28">
         <v>5.4</v>
       </c>
       <c r="R28" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
@@ -2422,19 +2365,19 @@
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D29" t="s">
-        <v>133</v>
-      </c>
-      <c r="E29" t="s">
-        <v>62</v>
+        <v>129</v>
+      </c>
+      <c r="E29">
+        <v>10</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="H29" t="s">
         <v>14</v>
@@ -2446,7 +2389,7 @@
         <v>11</v>
       </c>
       <c r="L29" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="M29">
         <v>-35.262650000000001</v>
@@ -2455,16 +2398,16 @@
         <v>174.18180000000001</v>
       </c>
       <c r="O29" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="P29" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="Q29">
         <v>5.4</v>
       </c>
       <c r="R29" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
@@ -2475,19 +2418,19 @@
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="D30" t="s">
-        <v>133</v>
-      </c>
-      <c r="E30" t="s">
-        <v>64</v>
+        <v>130</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="H30" t="s">
         <v>14</v>
@@ -2499,7 +2442,7 @@
         <v>11</v>
       </c>
       <c r="L30" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="M30">
         <v>-35.262650000000001</v>
@@ -2508,16 +2451,16 @@
         <v>174.18180000000001</v>
       </c>
       <c r="O30" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="P30" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="Q30">
         <v>5.4</v>
       </c>
       <c r="R30" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
@@ -2528,19 +2471,19 @@
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="D31" t="s">
-        <v>133</v>
-      </c>
-      <c r="E31" t="s">
-        <v>66</v>
+        <v>130</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="H31" t="s">
         <v>14</v>
@@ -2552,7 +2495,7 @@
         <v>11</v>
       </c>
       <c r="L31" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="M31">
         <v>-35.262650000000001</v>
@@ -2561,16 +2504,16 @@
         <v>174.18180000000001</v>
       </c>
       <c r="O31" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="P31" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="Q31">
         <v>5.4</v>
       </c>
       <c r="R31" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
@@ -2581,10 +2524,10 @@
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="D32" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -2593,7 +2536,7 @@
         <v>8</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="H32" t="s">
         <v>14</v>
@@ -2605,7 +2548,7 @@
         <v>11</v>
       </c>
       <c r="L32" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="M32">
         <v>-35.186833300000004</v>
@@ -2614,16 +2557,16 @@
         <v>174.11733330000001</v>
       </c>
       <c r="O32" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="P32" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="Q32">
         <v>34</v>
       </c>
       <c r="R32" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
@@ -2634,10 +2577,10 @@
         <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="D33" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="E33">
         <v>2</v>
@@ -2646,7 +2589,7 @@
         <v>8</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="H33" t="s">
         <v>14</v>
@@ -2658,7 +2601,7 @@
         <v>11</v>
       </c>
       <c r="L33" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="M33">
         <v>-35.186833300000004</v>
@@ -2667,16 +2610,16 @@
         <v>174.11733330000001</v>
       </c>
       <c r="O33" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="P33" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="Q33">
         <v>34</v>
       </c>
       <c r="R33" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
@@ -2687,10 +2630,10 @@
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="D34" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="E34">
         <v>3</v>
@@ -2699,7 +2642,7 @@
         <v>8</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="H34" t="s">
         <v>14</v>
@@ -2711,7 +2654,7 @@
         <v>11</v>
       </c>
       <c r="L34" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="M34">
         <v>-35.186833300000004</v>
@@ -2720,16 +2663,16 @@
         <v>174.11733330000001</v>
       </c>
       <c r="O34" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="P34" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="Q34">
         <v>34</v>
       </c>
       <c r="R34" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
@@ -2740,10 +2683,10 @@
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D35" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="E35">
         <v>4</v>
@@ -2752,7 +2695,7 @@
         <v>8</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="H35" t="s">
         <v>14</v>
@@ -2764,7 +2707,7 @@
         <v>11</v>
       </c>
       <c r="L35" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="M35">
         <v>-35.186833300000004</v>
@@ -2773,16 +2716,16 @@
         <v>174.11733330000001</v>
       </c>
       <c r="O35" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="Q35">
         <v>34</v>
       </c>
       <c r="R35" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
@@ -2793,10 +2736,10 @@
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="D36" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="E36">
         <v>5</v>
@@ -2805,7 +2748,7 @@
         <v>8</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="H36" t="s">
         <v>14</v>
@@ -2817,7 +2760,7 @@
         <v>11</v>
       </c>
       <c r="L36" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="M36">
         <v>-35.186833300000004</v>
@@ -2826,16 +2769,16 @@
         <v>174.11733330000001</v>
       </c>
       <c r="O36" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="P36" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="Q36">
         <v>34</v>
       </c>
       <c r="R36" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
@@ -2846,10 +2789,10 @@
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="D37" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="E37">
         <v>6</v>
@@ -2858,7 +2801,7 @@
         <v>8</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="H37" t="s">
         <v>14</v>
@@ -2870,7 +2813,7 @@
         <v>11</v>
       </c>
       <c r="L37" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="M37">
         <v>-35.186833300000004</v>
@@ -2879,16 +2822,16 @@
         <v>174.11733330000001</v>
       </c>
       <c r="O37" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="P37" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="Q37">
         <v>34</v>
       </c>
       <c r="R37" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
@@ -2899,10 +2842,10 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="D38" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="E38">
         <v>7</v>
@@ -2911,7 +2854,7 @@
         <v>8</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="H38" t="s">
         <v>14</v>
@@ -2923,7 +2866,7 @@
         <v>11</v>
       </c>
       <c r="L38" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="M38">
         <v>-35.186833300000004</v>
@@ -2932,16 +2875,16 @@
         <v>174.11733330000001</v>
       </c>
       <c r="O38" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="Q38">
         <v>34</v>
       </c>
       <c r="R38" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
@@ -2952,10 +2895,10 @@
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="D39" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="E39">
         <v>8</v>
@@ -2964,7 +2907,7 @@
         <v>8</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="H39" t="s">
         <v>14</v>
@@ -2976,7 +2919,7 @@
         <v>11</v>
       </c>
       <c r="L39" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="M39">
         <v>-35.186833300000004</v>
@@ -2985,16 +2928,16 @@
         <v>174.11733330000001</v>
       </c>
       <c r="O39" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="Q39">
         <v>34</v>
       </c>
       <c r="R39" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
@@ -3005,10 +2948,10 @@
         <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="D40" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="E40">
         <v>9</v>
@@ -3017,7 +2960,7 @@
         <v>8</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="H40" t="s">
         <v>14</v>
@@ -3029,7 +2972,7 @@
         <v>11</v>
       </c>
       <c r="L40" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="M40">
         <v>-35.186833300000004</v>
@@ -3038,16 +2981,16 @@
         <v>174.11733330000001</v>
       </c>
       <c r="O40" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="P40" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="Q40">
         <v>34</v>
       </c>
       <c r="R40" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
@@ -3058,10 +3001,10 @@
         <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="D41" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="E41">
         <v>10</v>
@@ -3070,7 +3013,7 @@
         <v>8</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="H41" t="s">
         <v>14</v>
@@ -3082,7 +3025,7 @@
         <v>11</v>
       </c>
       <c r="L41" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="M41">
         <v>-35.186833300000004</v>
@@ -3091,16 +3034,16 @@
         <v>174.11733330000001</v>
       </c>
       <c r="O41" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="Q41">
         <v>34</v>
       </c>
       <c r="R41" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
@@ -3111,10 +3054,10 @@
         <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="D42" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="E42">
         <v>11</v>
@@ -3123,7 +3066,7 @@
         <v>8</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="H42" t="s">
         <v>14</v>
@@ -3135,7 +3078,7 @@
         <v>11</v>
       </c>
       <c r="L42" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="M42">
         <v>-35.186833300000004</v>
@@ -3144,16 +3087,16 @@
         <v>174.11733330000001</v>
       </c>
       <c r="O42" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="P42" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="Q42">
         <v>34</v>
       </c>
       <c r="R42" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
@@ -3164,10 +3107,10 @@
         <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="D43" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="E43">
         <v>12</v>
@@ -3176,7 +3119,7 @@
         <v>8</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="H43" t="s">
         <v>14</v>
@@ -3188,7 +3131,7 @@
         <v>11</v>
       </c>
       <c r="L43" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="M43">
         <v>-35.186833300000004</v>
@@ -3197,16 +3140,16 @@
         <v>174.11733330000001</v>
       </c>
       <c r="O43" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="Q43">
         <v>34</v>
       </c>
       <c r="R43" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
@@ -3217,10 +3160,10 @@
         <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="D44" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="E44">
         <v>13</v>
@@ -3229,7 +3172,7 @@
         <v>8</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="H44" t="s">
         <v>14</v>
@@ -3241,7 +3184,7 @@
         <v>11</v>
       </c>
       <c r="L44" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="M44">
         <v>-35.186833300000004</v>
@@ -3250,16 +3193,16 @@
         <v>174.11733330000001</v>
       </c>
       <c r="O44" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="P44" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="Q44">
         <v>34</v>
       </c>
       <c r="R44" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
@@ -3270,10 +3213,10 @@
         <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D45" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="E45">
         <v>14</v>
@@ -3282,7 +3225,7 @@
         <v>8</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="H45" t="s">
         <v>14</v>
@@ -3294,7 +3237,7 @@
         <v>11</v>
       </c>
       <c r="L45" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="M45">
         <v>-35.186833300000004</v>
@@ -3303,16 +3246,16 @@
         <v>174.11733330000001</v>
       </c>
       <c r="O45" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="P45" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="Q45">
         <v>34</v>
       </c>
       <c r="R45" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
@@ -3323,10 +3266,10 @@
         <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="D46" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="E46">
         <v>15</v>
@@ -3335,7 +3278,7 @@
         <v>8</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="H46" t="s">
         <v>14</v>
@@ -3347,7 +3290,7 @@
         <v>11</v>
       </c>
       <c r="L46" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="M46">
         <v>-35.186833300000004</v>
@@ -3356,16 +3299,16 @@
         <v>174.11733330000001</v>
       </c>
       <c r="O46" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="Q46">
         <v>34</v>
       </c>
       <c r="R46" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
@@ -3376,10 +3319,10 @@
         <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D47" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="E47">
         <v>16</v>
@@ -3388,7 +3331,7 @@
         <v>8</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="H47" t="s">
         <v>14</v>
@@ -3400,7 +3343,7 @@
         <v>11</v>
       </c>
       <c r="L47" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="M47">
         <v>-35.186833300000004</v>
@@ -3409,16 +3352,16 @@
         <v>174.11733330000001</v>
       </c>
       <c r="O47" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="Q47">
         <v>34</v>
       </c>
       <c r="R47" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
@@ -3429,10 +3372,10 @@
         <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="D48" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="E48">
         <v>17</v>
@@ -3441,7 +3384,7 @@
         <v>15</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="H48" t="s">
         <v>14</v>
@@ -3453,7 +3396,7 @@
         <v>11</v>
       </c>
       <c r="L48" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="M48">
         <v>-35.186833300000004</v>
@@ -3462,16 +3405,16 @@
         <v>174.11733330000001</v>
       </c>
       <c r="O48" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="P48" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="Q48">
         <v>34</v>
       </c>
       <c r="R48" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
@@ -3482,10 +3425,10 @@
         <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="D49" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="E49">
         <v>18</v>
@@ -3494,7 +3437,7 @@
         <v>15</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="H49" t="s">
         <v>14</v>
@@ -3506,7 +3449,7 @@
         <v>11</v>
       </c>
       <c r="L49" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="M49">
         <v>-35.186833300000004</v>
@@ -3515,16 +3458,16 @@
         <v>174.11733330000001</v>
       </c>
       <c r="O49" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="Q49">
         <v>34</v>
       </c>
       <c r="R49" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.2">
@@ -3535,10 +3478,10 @@
         <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="D50" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="E50">
         <v>19</v>
@@ -3547,7 +3490,7 @@
         <v>15</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="H50" t="s">
         <v>14</v>
@@ -3559,7 +3502,7 @@
         <v>11</v>
       </c>
       <c r="L50" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="M50">
         <v>-35.186833300000004</v>
@@ -3568,16 +3511,16 @@
         <v>174.11733330000001</v>
       </c>
       <c r="O50" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="P50" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="Q50">
         <v>34</v>
       </c>
       <c r="R50" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.2">
@@ -3588,10 +3531,10 @@
         <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="D51" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="E51">
         <v>20</v>
@@ -3600,7 +3543,7 @@
         <v>15</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="H51" t="s">
         <v>14</v>
@@ -3612,7 +3555,7 @@
         <v>11</v>
       </c>
       <c r="L51" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="M51">
         <v>-35.186833300000004</v>
@@ -3621,16 +3564,16 @@
         <v>174.11733330000001</v>
       </c>
       <c r="O51" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="Q51">
         <v>34</v>
       </c>
       <c r="R51" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.2">
@@ -3641,10 +3584,10 @@
         <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="D52" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="E52">
         <v>21</v>
@@ -3653,7 +3596,7 @@
         <v>15</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="H52" t="s">
         <v>14</v>
@@ -3665,7 +3608,7 @@
         <v>11</v>
       </c>
       <c r="L52" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="M52">
         <v>-35.186833300000004</v>
@@ -3674,16 +3617,16 @@
         <v>174.11733330000001</v>
       </c>
       <c r="O52" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="P52" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="Q52">
         <v>34</v>
       </c>
       <c r="R52" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
     </row>
     <row r="53" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -3694,10 +3637,10 @@
         <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="D53" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -3706,7 +3649,7 @@
         <v>17</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="H53" t="s">
         <v>14</v>
@@ -3718,7 +3661,7 @@
         <v>11</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="M53">
         <v>-44.618299999999998</v>
@@ -3727,10 +3670,10 @@
         <v>167.8588</v>
       </c>
       <c r="O53" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="P53" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="Q53">
         <v>30</v>
@@ -3744,10 +3687,10 @@
         <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="D54" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="E54">
         <v>2</v>
@@ -3756,7 +3699,7 @@
         <v>17</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="H54" t="s">
         <v>14</v>
@@ -3768,7 +3711,7 @@
         <v>11</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="M54">
         <v>-44.618299999999998</v>
@@ -3777,10 +3720,10 @@
         <v>167.8588</v>
       </c>
       <c r="O54" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="P54" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="Q54">
         <v>30</v>
@@ -3794,10 +3737,10 @@
         <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="D55" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="E55">
         <v>3</v>
@@ -3806,7 +3749,7 @@
         <v>8</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="H55" t="s">
         <v>14</v>
@@ -3821,7 +3764,7 @@
         <v>11</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="M55">
         <v>-44.618299999999998</v>
@@ -3830,10 +3773,10 @@
         <v>167.8588</v>
       </c>
       <c r="O55" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="P55" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="Q55">
         <v>30</v>
@@ -3847,10 +3790,10 @@
         <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="D56" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="E56">
         <v>4</v>
@@ -3859,7 +3802,7 @@
         <v>15</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="H56" t="s">
         <v>14</v>
@@ -3874,7 +3817,7 @@
         <v>11</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="M56">
         <v>-44.618299999999998</v>
@@ -3883,10 +3826,10 @@
         <v>167.8588</v>
       </c>
       <c r="O56" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="P56" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="Q56">
         <v>30</v>
@@ -3900,10 +3843,10 @@
         <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="D57" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -3912,7 +3855,7 @@
         <v>8</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="H57" t="s">
         <v>14</v>
@@ -3924,7 +3867,7 @@
         <v>11</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="M57">
         <v>-34.356670000000001</v>
@@ -3933,10 +3876,10 @@
         <v>172.77</v>
       </c>
       <c r="O57" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="Q57">
         <v>54</v>
@@ -3950,19 +3893,19 @@
         <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="D58" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="E58">
         <v>2</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="H58" t="s">
         <v>14</v>
@@ -3977,7 +3920,7 @@
         <v>11</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="M58">
         <v>-34.356670000000001</v>
@@ -3986,10 +3929,10 @@
         <v>172.77</v>
       </c>
       <c r="O58" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="P58" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="Q58">
         <v>54</v>
@@ -4003,10 +3946,10 @@
         <v>11</v>
       </c>
       <c r="C59" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="D59" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="E59">
         <v>3</v>
@@ -4015,7 +3958,7 @@
         <v>8</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="H59" t="s">
         <v>14</v>
@@ -4027,7 +3970,7 @@
         <v>11</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="M59">
         <v>-34.356670000000001</v>
@@ -4036,10 +3979,10 @@
         <v>172.77</v>
       </c>
       <c r="O59" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="P59" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="Q59">
         <v>54</v>
@@ -4053,10 +3996,10 @@
         <v>11</v>
       </c>
       <c r="C60" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="D60" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="E60">
         <v>4</v>
@@ -4065,7 +4008,7 @@
         <v>8</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="H60" t="s">
         <v>14</v>
@@ -4077,7 +4020,7 @@
         <v>11</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="M60">
         <v>-34.356670000000001</v>
@@ -4086,10 +4029,10 @@
         <v>172.77</v>
       </c>
       <c r="O60" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="P60" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="Q60">
         <v>54</v>
@@ -4103,10 +4046,10 @@
         <v>11</v>
       </c>
       <c r="C61" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="D61" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="E61">
         <v>5</v>
@@ -4115,7 +4058,7 @@
         <v>8</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="H61" t="s">
         <v>14</v>
@@ -4130,7 +4073,7 @@
         <v>11</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="M61">
         <v>-34.356670000000001</v>
@@ -4139,10 +4082,10 @@
         <v>172.77</v>
       </c>
       <c r="O61" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="P61" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="Q61">
         <v>54</v>
@@ -4156,10 +4099,10 @@
         <v>11</v>
       </c>
       <c r="C62" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="D62" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="E62">
         <v>6</v>
@@ -4168,7 +4111,7 @@
         <v>17</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="H62" t="s">
         <v>14</v>
@@ -4180,7 +4123,7 @@
         <v>11</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="M62">
         <v>-34.356670000000001</v>
@@ -4189,10 +4132,10 @@
         <v>172.77</v>
       </c>
       <c r="O62" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="P62" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="Q62">
         <v>54</v>
@@ -4206,10 +4149,10 @@
         <v>11</v>
       </c>
       <c r="C63" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="D63" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="E63">
         <v>7</v>
@@ -4218,7 +4161,7 @@
         <v>8</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="H63" t="s">
         <v>14</v>
@@ -4230,7 +4173,7 @@
         <v>11</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="M63">
         <v>-34.356670000000001</v>
@@ -4239,10 +4182,10 @@
         <v>172.77</v>
       </c>
       <c r="O63" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="P63" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="Q63">
         <v>54</v>
@@ -4256,19 +4199,19 @@
         <v>11</v>
       </c>
       <c r="C64" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D64" t="s">
-        <v>145</v>
-      </c>
-      <c r="E64" t="s">
-        <v>28</v>
+        <v>131</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="H64" t="s">
         <v>14</v>
@@ -4280,7 +4223,7 @@
         <v>11</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="M64">
         <v>-46.75</v>
@@ -4289,16 +4232,16 @@
         <v>168.28</v>
       </c>
       <c r="O64" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="P64" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="Q64">
         <v>32</v>
       </c>
       <c r="R64" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
     </row>
     <row r="65" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -4309,19 +4252,19 @@
         <v>11</v>
       </c>
       <c r="C65" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="D65" t="s">
-        <v>145</v>
-      </c>
-      <c r="E65" t="s">
-        <v>30</v>
+        <v>131</v>
+      </c>
+      <c r="E65">
+        <v>2</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="H65" t="s">
         <v>14</v>
@@ -4333,7 +4276,7 @@
         <v>11</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="M65">
         <v>-46.75</v>
@@ -4342,16 +4285,16 @@
         <v>168.28</v>
       </c>
       <c r="O65" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="P65" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="Q65">
         <v>32</v>
       </c>
       <c r="R65" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -4362,19 +4305,19 @@
         <v>11</v>
       </c>
       <c r="C66" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="D66" t="s">
-        <v>145</v>
-      </c>
-      <c r="E66" t="s">
-        <v>32</v>
+        <v>131</v>
+      </c>
+      <c r="E66">
+        <v>3</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="H66" t="s">
         <v>14</v>
@@ -4386,7 +4329,7 @@
         <v>11</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="M66">
         <v>-46.75</v>
@@ -4395,16 +4338,16 @@
         <v>168.28</v>
       </c>
       <c r="O66" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="P66" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="Q66">
         <v>32</v>
       </c>
       <c r="R66" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
     </row>
     <row r="67" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -4415,19 +4358,19 @@
         <v>11</v>
       </c>
       <c r="C67" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D67" t="s">
-        <v>145</v>
-      </c>
-      <c r="E67" t="s">
-        <v>44</v>
+        <v>132</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="H67" t="s">
         <v>14</v>
@@ -4439,7 +4382,7 @@
         <v>11</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="M67">
         <v>-46.75</v>
@@ -4448,16 +4391,16 @@
         <v>168.28</v>
       </c>
       <c r="O67" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="P67" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="Q67">
         <v>32</v>
       </c>
       <c r="R67" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
     </row>
     <row r="68" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -4468,19 +4411,19 @@
         <v>11</v>
       </c>
       <c r="C68" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="D68" t="s">
-        <v>145</v>
-      </c>
-      <c r="E68" t="s">
-        <v>46</v>
+        <v>132</v>
+      </c>
+      <c r="E68">
+        <v>2</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="H68" t="s">
         <v>14</v>
@@ -4492,7 +4435,7 @@
         <v>11</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="M68">
         <v>-46.75</v>
@@ -4501,16 +4444,16 @@
         <v>168.28</v>
       </c>
       <c r="O68" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="P68" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="Q68">
         <v>32</v>
       </c>
       <c r="R68" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
     </row>
     <row r="69" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -4521,19 +4464,19 @@
         <v>11</v>
       </c>
       <c r="C69" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="D69" t="s">
-        <v>145</v>
-      </c>
-      <c r="E69" t="s">
-        <v>48</v>
+        <v>132</v>
+      </c>
+      <c r="E69">
+        <v>3</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="H69" t="s">
         <v>14</v>
@@ -4545,7 +4488,7 @@
         <v>11</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="M69">
         <v>-46.75</v>
@@ -4554,16 +4497,16 @@
         <v>168.28</v>
       </c>
       <c r="O69" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="P69" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="Q69">
         <v>32</v>
       </c>
       <c r="R69" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
     </row>
     <row r="70" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -4574,19 +4517,19 @@
         <v>11</v>
       </c>
       <c r="C70" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="D70" t="s">
-        <v>145</v>
-      </c>
-      <c r="E70" t="s">
-        <v>50</v>
+        <v>132</v>
+      </c>
+      <c r="E70">
+        <v>4</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="H70" t="s">
         <v>14</v>
@@ -4601,7 +4544,7 @@
         <v>11</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="M70">
         <v>-46.75</v>
@@ -4610,16 +4553,16 @@
         <v>168.28</v>
       </c>
       <c r="O70" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="P70" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="Q70">
         <v>32</v>
       </c>
       <c r="R70" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
     </row>
     <row r="71" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -4630,19 +4573,19 @@
         <v>11</v>
       </c>
       <c r="C71" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="D71" t="s">
-        <v>145</v>
-      </c>
-      <c r="E71" t="s">
-        <v>52</v>
+        <v>132</v>
+      </c>
+      <c r="E71">
+        <v>5</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="H71" t="s">
         <v>14</v>
@@ -4654,7 +4597,7 @@
         <v>11</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="M71">
         <v>-46.75</v>
@@ -4663,16 +4606,16 @@
         <v>168.28</v>
       </c>
       <c r="O71" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="P71" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="Q71">
         <v>32</v>
       </c>
       <c r="R71" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
     </row>
     <row r="72" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -4683,19 +4626,19 @@
         <v>11</v>
       </c>
       <c r="C72" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="D72" t="s">
-        <v>145</v>
-      </c>
-      <c r="E72" t="s">
-        <v>54</v>
+        <v>132</v>
+      </c>
+      <c r="E72">
+        <v>6</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="H72" t="s">
         <v>14</v>
@@ -4707,7 +4650,7 @@
         <v>11</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="M72">
         <v>-46.75</v>
@@ -4716,16 +4659,16 @@
         <v>168.28</v>
       </c>
       <c r="O72" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="P72" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="Q72">
         <v>32</v>
       </c>
       <c r="R72" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
     </row>
     <row r="73" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -4736,19 +4679,19 @@
         <v>11</v>
       </c>
       <c r="C73" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="D73" t="s">
-        <v>145</v>
-      </c>
-      <c r="E73" t="s">
-        <v>56</v>
+        <v>132</v>
+      </c>
+      <c r="E73">
+        <v>7</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="H73" t="s">
         <v>14</v>
@@ -4760,7 +4703,7 @@
         <v>11</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="M73">
         <v>-46.75</v>
@@ -4769,16 +4712,16 @@
         <v>168.28</v>
       </c>
       <c r="O73" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="P73" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="Q73">
         <v>32</v>
       </c>
       <c r="R73" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
     </row>
     <row r="74" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -4789,19 +4732,19 @@
         <v>11</v>
       </c>
       <c r="C74" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="D74" t="s">
-        <v>145</v>
-      </c>
-      <c r="E74" t="s">
-        <v>58</v>
+        <v>132</v>
+      </c>
+      <c r="E74">
+        <v>8</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="H74" t="s">
         <v>14</v>
@@ -4813,7 +4756,7 @@
         <v>11</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="M74">
         <v>-46.75</v>
@@ -4822,16 +4765,16 @@
         <v>168.28</v>
       </c>
       <c r="O74" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="P74" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="Q74">
         <v>32</v>
       </c>
       <c r="R74" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
     </row>
     <row r="75" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -4842,19 +4785,19 @@
         <v>11</v>
       </c>
       <c r="C75" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="D75" t="s">
-        <v>145</v>
-      </c>
-      <c r="E75" t="s">
-        <v>64</v>
+        <v>133</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="H75" t="s">
         <v>14</v>
@@ -4866,7 +4809,7 @@
         <v>11</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="M75">
         <v>-46.75</v>
@@ -4875,16 +4818,16 @@
         <v>168.28</v>
       </c>
       <c r="O75" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="P75" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="Q75">
         <v>32</v>
       </c>
       <c r="R75" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
     </row>
     <row r="76" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -4895,19 +4838,19 @@
         <v>11</v>
       </c>
       <c r="C76" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="D76" t="s">
-        <v>145</v>
-      </c>
-      <c r="E76" t="s">
-        <v>66</v>
+        <v>133</v>
+      </c>
+      <c r="E76">
+        <v>2</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="H76" t="s">
         <v>14</v>
@@ -4919,7 +4862,7 @@
         <v>11</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="M76">
         <v>-46.75</v>
@@ -4928,16 +4871,16 @@
         <v>168.28</v>
       </c>
       <c r="O76" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="P76" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="Q76">
         <v>32</v>
       </c>
       <c r="R76" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
     </row>
     <row r="77" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -4948,19 +4891,19 @@
         <v>11</v>
       </c>
       <c r="C77" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="D77" t="s">
-        <v>145</v>
-      </c>
-      <c r="E77" t="s">
-        <v>114</v>
+        <v>133</v>
+      </c>
+      <c r="E77">
+        <v>3</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="H77" t="s">
         <v>14</v>
@@ -4975,7 +4918,7 @@
         <v>11</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="M77">
         <v>-46.75</v>
@@ -4984,36 +4927,16 @@
         <v>168.28</v>
       </c>
       <c r="O77" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="P77" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="Q77">
         <v>32</v>
       </c>
       <c r="R77" t="s">
-        <v>147</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D5C1ED-B79F-4D40-B1D7-0DBB1682E7E0}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
